--- a/Documents/WebTours Профиль нагрузки_v1.2 (Новая статистика)-1+2_4-1-1-2-1-1.xlsx
+++ b/Documents/WebTours Профиль нагрузки_v1.2 (Новая статистика)-1+2_4-1-1-2-1-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4ept_\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1192F633-4EE5-4478-8B26-047347E8648C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A0DABF-D2EF-49E4-8E92-4023897EFFA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="123">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -591,6 +591,12 @@
   </si>
   <si>
     <t>UC_03_Buyticket_3</t>
+  </si>
+  <si>
+    <t>vuser_end_Transaction</t>
+  </si>
+  <si>
+    <t>vuser_init_Transaction</t>
   </si>
 </sst>
 </file>
@@ -601,12 +607,20 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1484,73 +1498,93 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="166">
+  <cellStyleXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1652,46 +1686,46 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1701,16 +1735,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="38" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1722,28 +1756,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1756,14 +1790,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1782,8 +1816,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="45"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="146"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="45"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1793,8 +1826,10 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="166"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="166"/>
   </cellXfs>
-  <cellStyles count="166">
+  <cellStyles count="186">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% — акцент1 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% — акцент1 3" xfId="68" xr:uid="{268E6BE7-A460-4628-B6C2-18CCECD40D0C}"/>
@@ -1802,6 +1837,7 @@
     <cellStyle name="20% — акцент1 5" xfId="108" xr:uid="{EEB3B4CB-D5F2-4ECB-9CFB-6527EE30DE4B}"/>
     <cellStyle name="20% — акцент1 6" xfId="128" xr:uid="{35A7F927-BA76-4198-AFC7-7218CDFFFF79}"/>
     <cellStyle name="20% — акцент1 7" xfId="148" xr:uid="{FAC2D776-4C4D-41E9-B6FC-F6EA2B9FBDAC}"/>
+    <cellStyle name="20% — акцент1 8" xfId="168" xr:uid="{0EA0C271-624B-41F4-92E2-F2E9C294F512}"/>
     <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% — акцент2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="20% — акцент2 3" xfId="71" xr:uid="{1C91B192-28BA-45F2-B5EC-034C0D26FB12}"/>
@@ -1809,6 +1845,7 @@
     <cellStyle name="20% — акцент2 5" xfId="111" xr:uid="{DC5FDC4F-3BE3-4C5B-9E03-83201894CC50}"/>
     <cellStyle name="20% — акцент2 6" xfId="131" xr:uid="{7A8A43AC-4552-4A0B-8D0B-27E223ADA086}"/>
     <cellStyle name="20% — акцент2 7" xfId="151" xr:uid="{F1240C7A-7985-42BD-A478-E970FD4D018B}"/>
+    <cellStyle name="20% — акцент2 8" xfId="171" xr:uid="{A24C15F8-05EA-4E34-8C22-31778F631BDC}"/>
     <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% — акцент3 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="20% — акцент3 3" xfId="74" xr:uid="{84A6B229-B4FD-4448-A0A5-9B5EE7DCC8B7}"/>
@@ -1816,6 +1853,7 @@
     <cellStyle name="20% — акцент3 5" xfId="114" xr:uid="{90D76BEC-AA0A-4E2E-880C-CBC2CA730449}"/>
     <cellStyle name="20% — акцент3 6" xfId="134" xr:uid="{4877DCD9-9B6C-431A-9D44-E7668424AAEE}"/>
     <cellStyle name="20% — акцент3 7" xfId="154" xr:uid="{47982C5D-291B-4E29-A011-AC4ACB9D3AB5}"/>
+    <cellStyle name="20% — акцент3 8" xfId="174" xr:uid="{96A89367-7C10-457C-BFAE-A4181F4C13DE}"/>
     <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% — акцент4 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="20% — акцент4 3" xfId="77" xr:uid="{75714783-9202-4C13-99DD-FC89D88D9B4A}"/>
@@ -1823,6 +1861,7 @@
     <cellStyle name="20% — акцент4 5" xfId="117" xr:uid="{52837591-AFC9-44C5-A6AB-48799D33E918}"/>
     <cellStyle name="20% — акцент4 6" xfId="137" xr:uid="{FBF2640C-D265-43E8-A835-35FA3CAE74EF}"/>
     <cellStyle name="20% — акцент4 7" xfId="157" xr:uid="{E95FD225-3363-4138-8D80-182FDA8F4E50}"/>
+    <cellStyle name="20% — акцент4 8" xfId="177" xr:uid="{BE29018B-9E00-451B-8D30-0F2853854EA4}"/>
     <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% — акцент5 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="20% — акцент5 3" xfId="80" xr:uid="{E67692A4-768A-4F0B-ACE4-D8B086319D33}"/>
@@ -1830,6 +1869,7 @@
     <cellStyle name="20% — акцент5 5" xfId="120" xr:uid="{650F9581-FBA2-4A3A-867A-3CE3B75FE0B9}"/>
     <cellStyle name="20% — акцент5 6" xfId="140" xr:uid="{958A1BAD-8565-4622-A9AA-CAF056C1CCEB}"/>
     <cellStyle name="20% — акцент5 7" xfId="160" xr:uid="{BFB52CC8-CF49-4E32-8D90-3DB8809DE174}"/>
+    <cellStyle name="20% — акцент5 8" xfId="180" xr:uid="{6949B5BA-A3D6-4455-8B22-47273C6ECFF1}"/>
     <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% — акцент6 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="20% — акцент6 3" xfId="83" xr:uid="{CFBD5E5B-C718-4797-AA05-7830DAF47D7A}"/>
@@ -1837,6 +1877,7 @@
     <cellStyle name="20% — акцент6 5" xfId="123" xr:uid="{8D34524A-28C9-4B62-9913-70742BF038E9}"/>
     <cellStyle name="20% — акцент6 6" xfId="143" xr:uid="{7C8B1D5B-3BAE-4A7F-B488-85468498D1E8}"/>
     <cellStyle name="20% — акцент6 7" xfId="163" xr:uid="{57532AEB-E672-4C0A-8EB2-682E3290AF0A}"/>
+    <cellStyle name="20% — акцент6 8" xfId="183" xr:uid="{5B3045B8-7DD0-4C0D-B1BF-B466DDB48035}"/>
     <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% — акцент1 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="40% — акцент1 3" xfId="69" xr:uid="{1A179889-A270-4607-BC52-2C3F1A88EACA}"/>
@@ -1844,6 +1885,7 @@
     <cellStyle name="40% — акцент1 5" xfId="109" xr:uid="{55F193D2-E850-4B8E-AE71-5D88B0DBBE25}"/>
     <cellStyle name="40% — акцент1 6" xfId="129" xr:uid="{A901EED4-6E11-4407-ADB0-544632D19D49}"/>
     <cellStyle name="40% — акцент1 7" xfId="149" xr:uid="{7E67D112-D62C-441E-A9F0-BBF84A42A2B5}"/>
+    <cellStyle name="40% — акцент1 8" xfId="169" xr:uid="{74173D7C-C5BD-4D92-A068-0F1F3878882E}"/>
     <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% — акцент2 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="40% — акцент2 3" xfId="72" xr:uid="{2A9984BE-2169-4905-BFFC-C25CE18107D0}"/>
@@ -1851,6 +1893,7 @@
     <cellStyle name="40% — акцент2 5" xfId="112" xr:uid="{358A5C26-BF8E-4A2A-88CA-9FC32E78010A}"/>
     <cellStyle name="40% — акцент2 6" xfId="132" xr:uid="{BF4430CD-F6E4-492C-A023-7AA24B11D4F4}"/>
     <cellStyle name="40% — акцент2 7" xfId="152" xr:uid="{F0B6BD4D-C47C-4168-8EA1-308F44017BE1}"/>
+    <cellStyle name="40% — акцент2 8" xfId="172" xr:uid="{FD38FB5E-14BF-437D-B44C-20E77DDA92F2}"/>
     <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% — акцент3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="40% — акцент3 3" xfId="75" xr:uid="{448C91A8-A494-495D-B963-9C776550A109}"/>
@@ -1858,6 +1901,7 @@
     <cellStyle name="40% — акцент3 5" xfId="115" xr:uid="{F6F5E813-E2BF-4C0F-BAF2-5A4B69CBBD2C}"/>
     <cellStyle name="40% — акцент3 6" xfId="135" xr:uid="{EAF279A9-03CD-413C-AD4D-95F52F0E7770}"/>
     <cellStyle name="40% — акцент3 7" xfId="155" xr:uid="{134CDB5C-BCA9-4D4A-8E54-13A3FD2C6D40}"/>
+    <cellStyle name="40% — акцент3 8" xfId="175" xr:uid="{0CD63C55-2B65-413A-B599-10D9991F53CD}"/>
     <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% — акцент4 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="40% — акцент4 3" xfId="78" xr:uid="{B69218AA-AEAE-4A7A-88EB-712C1ECDC9B2}"/>
@@ -1865,6 +1909,7 @@
     <cellStyle name="40% — акцент4 5" xfId="118" xr:uid="{5CDB7B8B-9677-4494-B625-BE76F8FAB0EE}"/>
     <cellStyle name="40% — акцент4 6" xfId="138" xr:uid="{CA623F9C-64F0-477A-8BEC-4B70E2F8415C}"/>
     <cellStyle name="40% — акцент4 7" xfId="158" xr:uid="{1E0FCA6F-B1DC-45DC-BE69-95E76A1A73FF}"/>
+    <cellStyle name="40% — акцент4 8" xfId="178" xr:uid="{19621D56-DCC0-4A6D-B686-A86D84996C56}"/>
     <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% — акцент5 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="40% — акцент5 3" xfId="81" xr:uid="{7AE5351B-582B-4157-949F-01C9DF9D764F}"/>
@@ -1872,6 +1917,7 @@
     <cellStyle name="40% — акцент5 5" xfId="121" xr:uid="{C7B28007-2B6B-4405-BBF2-B835C0B03A0B}"/>
     <cellStyle name="40% — акцент5 6" xfId="141" xr:uid="{C8453F70-959B-4A94-AD92-A5536C27EE52}"/>
     <cellStyle name="40% — акцент5 7" xfId="161" xr:uid="{F80CF29F-639B-4342-BA5E-E196DD62BFE1}"/>
+    <cellStyle name="40% — акцент5 8" xfId="181" xr:uid="{AF7EC2F8-5678-460A-B0F7-5FC043E93F06}"/>
     <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% — акцент6 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="40% — акцент6 3" xfId="84" xr:uid="{49B63F1C-8F8D-4C9B-831B-A726E643122C}"/>
@@ -1879,6 +1925,7 @@
     <cellStyle name="40% — акцент6 5" xfId="124" xr:uid="{FCFFF67D-7C2C-4713-9E85-F09E72321A21}"/>
     <cellStyle name="40% — акцент6 6" xfId="144" xr:uid="{7F5C15DB-4800-44FE-9C8D-000620F4DF25}"/>
     <cellStyle name="40% — акцент6 7" xfId="164" xr:uid="{AF85EE67-B0E0-4DB5-AE3A-7C49166039E9}"/>
+    <cellStyle name="40% — акцент6 8" xfId="184" xr:uid="{8572F7EC-403C-4A34-98D2-75F2ED7233F1}"/>
     <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% — акцент1 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="60% — акцент1 3" xfId="70" xr:uid="{8040EC93-2180-4AEF-9403-7A840AEBDDDB}"/>
@@ -1886,6 +1933,7 @@
     <cellStyle name="60% — акцент1 5" xfId="110" xr:uid="{4FC5FCB6-9D38-496F-9B05-87A6F5BC5554}"/>
     <cellStyle name="60% — акцент1 6" xfId="130" xr:uid="{93F8776A-9C46-4F30-9AB6-C39AF9B3EE4F}"/>
     <cellStyle name="60% — акцент1 7" xfId="150" xr:uid="{CB748233-A819-4845-86C5-1CAB8230DA5A}"/>
+    <cellStyle name="60% — акцент1 8" xfId="170" xr:uid="{43098294-72D0-4B1B-AC52-E23B5445FD73}"/>
     <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% — акцент2 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="60% — акцент2 3" xfId="73" xr:uid="{6241CEF9-175E-4980-973E-6D24003ACCC4}"/>
@@ -1893,6 +1941,7 @@
     <cellStyle name="60% — акцент2 5" xfId="113" xr:uid="{8B0E6B48-51C4-45F6-8309-4496E2E174B5}"/>
     <cellStyle name="60% — акцент2 6" xfId="133" xr:uid="{D211B759-9D0E-420C-876C-0C9B6B7293CB}"/>
     <cellStyle name="60% — акцент2 7" xfId="153" xr:uid="{FFD3E9A7-FF3D-42E9-B7C7-0B93139D7338}"/>
+    <cellStyle name="60% — акцент2 8" xfId="173" xr:uid="{020A64B2-1CE7-41AE-84C2-331740430A60}"/>
     <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% — акцент3 2" xfId="56" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="60% — акцент3 3" xfId="76" xr:uid="{8DC5A82C-DDAE-45AF-B4C3-D26501EDB9E5}"/>
@@ -1900,6 +1949,7 @@
     <cellStyle name="60% — акцент3 5" xfId="116" xr:uid="{6F1C4822-F2C8-495D-9B48-01B214DC0F8D}"/>
     <cellStyle name="60% — акцент3 6" xfId="136" xr:uid="{FA5B9E27-9DDF-4D73-805E-2A7367274512}"/>
     <cellStyle name="60% — акцент3 7" xfId="156" xr:uid="{B026D754-C18C-4AD0-A4F2-EF9C31C8A5FA}"/>
+    <cellStyle name="60% — акцент3 8" xfId="176" xr:uid="{E962C283-475B-495F-8A5B-0AAA2C270584}"/>
     <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% — акцент4 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
     <cellStyle name="60% — акцент4 3" xfId="79" xr:uid="{471B8360-8D0E-4186-8059-2FAD71E37544}"/>
@@ -1907,6 +1957,7 @@
     <cellStyle name="60% — акцент4 5" xfId="119" xr:uid="{66909462-102E-444D-9667-04D9C9D9470E}"/>
     <cellStyle name="60% — акцент4 6" xfId="139" xr:uid="{59E0C967-2A9B-424D-8919-A44FB07F462B}"/>
     <cellStyle name="60% — акцент4 7" xfId="159" xr:uid="{9016AAD4-0D0A-4952-85AC-6FFDEDD4B36C}"/>
+    <cellStyle name="60% — акцент4 8" xfId="179" xr:uid="{8C8A99FC-9D70-4DD4-9748-3BF05CD1C04E}"/>
     <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% — акцент5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
     <cellStyle name="60% — акцент5 3" xfId="82" xr:uid="{E0A9EFA6-310E-4D93-BDC5-11C9D3EEA735}"/>
@@ -1914,6 +1965,7 @@
     <cellStyle name="60% — акцент5 5" xfId="122" xr:uid="{FA96209E-0847-42A4-A8DD-565461666ED9}"/>
     <cellStyle name="60% — акцент5 6" xfId="142" xr:uid="{4250F437-1574-4F71-B3F9-DE697EC50BAA}"/>
     <cellStyle name="60% — акцент5 7" xfId="162" xr:uid="{D53C4FDF-71B3-4ED1-975F-94949E307DB1}"/>
+    <cellStyle name="60% — акцент5 8" xfId="182" xr:uid="{AFC4CA3C-F4E2-4186-9E77-222360D32307}"/>
     <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% — акцент6 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="60% — акцент6 3" xfId="85" xr:uid="{5539DCAA-F95A-43B3-BF58-57421525D578}"/>
@@ -1921,6 +1973,7 @@
     <cellStyle name="60% — акцент6 5" xfId="125" xr:uid="{EEC703A6-A69F-43E0-BEE3-6E54830FA1EB}"/>
     <cellStyle name="60% — акцент6 6" xfId="145" xr:uid="{6B9EC6F4-251E-4C96-92F5-CAF71BCD0F83}"/>
     <cellStyle name="60% — акцент6 7" xfId="165" xr:uid="{938E066C-07EE-4980-B5CE-AB3391638256}"/>
+    <cellStyle name="60% — акцент6 8" xfId="185" xr:uid="{95F0E5C6-AC2A-4E00-A74D-0F984571AE3E}"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -1940,6 +1993,7 @@
     <cellStyle name="Нейтральный" xfId="3" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Нейтральный 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 10" xfId="166" xr:uid="{4D99C186-79FA-4E11-9B45-FCE36BB1968D}"/>
     <cellStyle name="Обычный 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="Обычный 3" xfId="42" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
     <cellStyle name="Обычный 4" xfId="45" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
@@ -1957,32 +2011,33 @@
     <cellStyle name="Примечание 6" xfId="107" xr:uid="{0390C1CB-CACF-4EB7-BBDD-DB3D6E9DF5F6}"/>
     <cellStyle name="Примечание 7" xfId="127" xr:uid="{98F41029-3432-48D4-BA47-2D3694FD38A5}"/>
     <cellStyle name="Примечание 8" xfId="147" xr:uid="{FA96B1E0-F10D-4740-9BE9-78BC9308ACEE}"/>
+    <cellStyle name="Примечание 9" xfId="167" xr:uid="{56ED4A81-860C-41AD-BD3A-70F8EADC21A8}"/>
     <cellStyle name="Процентный" xfId="44" builtinId="5"/>
     <cellStyle name="Связанная ячейка" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="13">
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="0.00000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="166" formatCode="0.000000"/>
     </dxf>
     <dxf>
       <fill>
@@ -2017,27 +2072,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2705,6 +2739,120 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="Сводная таблица2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="1"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Сумма по полю Итого" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <formats count="7">
+    <format dxfId="6">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I61:J71" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
@@ -2820,120 +2968,6 @@
           </reference>
         </references>
       </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="Сводная таблица2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="1"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Сумма по полю Итого" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
-  </dataFields>
-  <formats count="7">
-    <format dxfId="19">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="18">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="17">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="16">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="15">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="14">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="13">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -3213,7 +3247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -4558,10 +4592,10 @@
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="75" t="s">
+      <c r="A35" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="76"/>
+      <c r="B35" s="75"/>
     </row>
     <row r="36" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A36" s="38" t="s">
@@ -4847,11 +4881,11 @@
       </c>
       <c r="H44" s="48">
         <f>VLOOKUP(F44,SummaryReport!A:J,8,FALSE)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I44" s="26">
         <f t="shared" si="20"/>
-        <v>-4.3478260869565188E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -6153,10 +6187,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A2" sqref="A2:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6197,610 +6231,674 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="74">
-        <v>0</v>
-      </c>
-      <c r="D2" s="74">
-        <v>0</v>
-      </c>
-      <c r="E2" s="74">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="F2" s="74">
+      <c r="C2" s="78">
+        <v>0</v>
+      </c>
+      <c r="D2" s="78">
+        <v>0</v>
+      </c>
+      <c r="E2" s="78">
+        <v>1.7210000000000001</v>
+      </c>
+      <c r="F2" s="78">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="G2" s="78">
+        <v>1.5680000000000001</v>
+      </c>
+      <c r="H2" s="78">
+        <v>172</v>
+      </c>
+      <c r="I2" s="78">
+        <v>0</v>
+      </c>
+      <c r="J2" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="78">
+        <v>0</v>
+      </c>
+      <c r="D3" s="78">
+        <v>0</v>
+      </c>
+      <c r="E3" s="78">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F3" s="78">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G3" s="78">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="H3" s="78">
+        <v>95</v>
+      </c>
+      <c r="I3" s="78">
+        <v>0</v>
+      </c>
+      <c r="J3" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="78">
+        <v>0</v>
+      </c>
+      <c r="D4" s="78">
+        <v>0</v>
+      </c>
+      <c r="E4" s="78">
+        <v>9.4E-2</v>
+      </c>
+      <c r="F4" s="78">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G4" s="78">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="H4" s="78">
+        <v>94</v>
+      </c>
+      <c r="I4" s="78">
+        <v>0</v>
+      </c>
+      <c r="J4" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="78">
+        <v>0</v>
+      </c>
+      <c r="D5" s="78">
+        <v>0</v>
+      </c>
+      <c r="E5" s="78">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="F5" s="78">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="G5" s="78">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="H5" s="78">
+        <v>24</v>
+      </c>
+      <c r="I5" s="78">
+        <v>0</v>
+      </c>
+      <c r="J5" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="78">
+        <v>0</v>
+      </c>
+      <c r="D6" s="78">
+        <v>0</v>
+      </c>
+      <c r="E6" s="78">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="F6" s="78">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G6" s="78">
+        <v>0.71</v>
+      </c>
+      <c r="H6" s="78">
+        <v>96</v>
+      </c>
+      <c r="I6" s="78">
+        <v>0</v>
+      </c>
+      <c r="J6" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="78">
+        <v>0</v>
+      </c>
+      <c r="D7" s="78">
+        <v>0</v>
+      </c>
+      <c r="E7" s="78">
+        <v>0.223</v>
+      </c>
+      <c r="F7" s="78">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G7" s="78">
+        <v>0.157</v>
+      </c>
+      <c r="H7" s="78">
+        <v>141</v>
+      </c>
+      <c r="I7" s="78">
+        <v>0</v>
+      </c>
+      <c r="J7" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="78">
+        <v>0</v>
+      </c>
+      <c r="D8" s="78">
+        <v>0</v>
+      </c>
+      <c r="E8" s="78">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="F8" s="78">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G8" s="78">
+        <v>0.12</v>
+      </c>
+      <c r="H8" s="78">
+        <v>112</v>
+      </c>
+      <c r="I8" s="78">
+        <v>0</v>
+      </c>
+      <c r="J8" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="78">
+        <v>0</v>
+      </c>
+      <c r="D9" s="78">
+        <v>0</v>
+      </c>
+      <c r="E9" s="78">
+        <v>0.223</v>
+      </c>
+      <c r="F9" s="78">
+        <v>0.02</v>
+      </c>
+      <c r="G9" s="78">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="H9" s="78">
+        <v>173</v>
+      </c>
+      <c r="I9" s="78">
+        <v>0</v>
+      </c>
+      <c r="J9" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="78">
+        <v>0</v>
+      </c>
+      <c r="D10" s="78">
+        <v>0</v>
+      </c>
+      <c r="E10" s="78">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="F10" s="78">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G10" s="78">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="H10" s="78">
+        <v>60</v>
+      </c>
+      <c r="I10" s="78">
+        <v>0</v>
+      </c>
+      <c r="J10" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="78">
+        <v>0</v>
+      </c>
+      <c r="D11" s="78">
+        <v>0</v>
+      </c>
+      <c r="E11" s="78">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="G2" s="74">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="H2" s="74">
-        <v>172</v>
-      </c>
-      <c r="I2" s="74">
-        <v>0</v>
-      </c>
-      <c r="J2" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="74" t="s">
+      <c r="F11" s="78">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G11" s="78">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H11" s="78">
+        <v>32</v>
+      </c>
+      <c r="I11" s="78">
+        <v>0</v>
+      </c>
+      <c r="J11" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="74">
-        <v>0</v>
-      </c>
-      <c r="D3" s="74">
-        <v>0</v>
-      </c>
-      <c r="E3" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="F3" s="74">
-        <v>1E-3</v>
-      </c>
-      <c r="G3" s="74">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="H3" s="74">
-        <v>95</v>
-      </c>
-      <c r="I3" s="74">
-        <v>0</v>
-      </c>
-      <c r="J3" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="C12" s="78">
+        <v>0</v>
+      </c>
+      <c r="D12" s="78">
+        <v>0</v>
+      </c>
+      <c r="E12" s="78">
+        <v>0.18</v>
+      </c>
+      <c r="F12" s="78">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G12" s="78">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="H12" s="78">
+        <v>108</v>
+      </c>
+      <c r="I12" s="78">
+        <v>0</v>
+      </c>
+      <c r="J12" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="74">
-        <v>0</v>
-      </c>
-      <c r="D4" s="74">
-        <v>0</v>
-      </c>
-      <c r="E4" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="F4" s="74">
-        <v>1E-3</v>
-      </c>
-      <c r="G4" s="74">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="H4" s="74">
-        <v>94</v>
-      </c>
-      <c r="I4" s="74">
-        <v>0</v>
-      </c>
-      <c r="J4" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="74" t="s">
+      <c r="C13" s="78">
+        <v>0</v>
+      </c>
+      <c r="D13" s="78">
+        <v>0</v>
+      </c>
+      <c r="E13" s="78">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="F13" s="78">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G13" s="78">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="H13" s="78">
+        <v>32</v>
+      </c>
+      <c r="I13" s="78">
+        <v>0</v>
+      </c>
+      <c r="J13" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="74">
-        <v>0</v>
-      </c>
-      <c r="D5" s="74">
-        <v>0</v>
-      </c>
-      <c r="E5" s="74">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="F5" s="74">
-        <v>2E-3</v>
-      </c>
-      <c r="G5" s="74">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H5" s="74">
+      <c r="C14" s="78">
+        <v>0</v>
+      </c>
+      <c r="D14" s="78">
+        <v>0</v>
+      </c>
+      <c r="E14" s="78">
+        <v>0.156</v>
+      </c>
+      <c r="F14" s="78">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G14" s="78">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="H14" s="78">
+        <v>32</v>
+      </c>
+      <c r="I14" s="78">
+        <v>0</v>
+      </c>
+      <c r="J14" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="78" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="78">
+        <v>0</v>
+      </c>
+      <c r="D15" s="78">
+        <v>0</v>
+      </c>
+      <c r="E15" s="78">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="F15" s="78">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G15" s="78">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="H15" s="78">
+        <v>10</v>
+      </c>
+      <c r="I15" s="78">
+        <v>0</v>
+      </c>
+      <c r="J15" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="78">
+        <v>0</v>
+      </c>
+      <c r="D16" s="78">
+        <v>0</v>
+      </c>
+      <c r="E16" s="78">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="F16" s="78">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G16" s="78">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="H16" s="78">
+        <v>34</v>
+      </c>
+      <c r="I16" s="78">
+        <v>0</v>
+      </c>
+      <c r="J16" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="78">
+        <v>0</v>
+      </c>
+      <c r="D17" s="78">
+        <v>0</v>
+      </c>
+      <c r="E17" s="78">
+        <v>1.492</v>
+      </c>
+      <c r="F17" s="78">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G17" s="78">
+        <v>1.365</v>
+      </c>
+      <c r="H17" s="78">
+        <v>60</v>
+      </c>
+      <c r="I17" s="78">
+        <v>0</v>
+      </c>
+      <c r="J17" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="78">
+        <v>0</v>
+      </c>
+      <c r="D18" s="78">
+        <v>0</v>
+      </c>
+      <c r="E18" s="78">
+        <v>1.242</v>
+      </c>
+      <c r="F18" s="78">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G18" s="78">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="H18" s="78">
+        <v>13</v>
+      </c>
+      <c r="I18" s="78">
+        <v>0</v>
+      </c>
+      <c r="J18" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="78">
+        <v>0</v>
+      </c>
+      <c r="D19" s="78">
+        <v>0</v>
+      </c>
+      <c r="E19" s="78">
+        <v>1.72</v>
+      </c>
+      <c r="F19" s="78">
+        <v>7.8E-2</v>
+      </c>
+      <c r="G19" s="78">
+        <v>1.6990000000000001</v>
+      </c>
+      <c r="H19" s="78">
         <v>23</v>
       </c>
-      <c r="I5" s="74">
-        <v>0</v>
-      </c>
-      <c r="J5" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="74" t="s">
+      <c r="I19" s="78">
+        <v>0</v>
+      </c>
+      <c r="J19" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="74">
-        <v>0</v>
-      </c>
-      <c r="D6" s="74">
-        <v>0</v>
-      </c>
-      <c r="E6" s="74">
-        <v>0.113</v>
-      </c>
-      <c r="F6" s="74">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="G6" s="74">
-        <v>0.113</v>
-      </c>
-      <c r="H6" s="74">
-        <v>96</v>
-      </c>
-      <c r="I6" s="74">
-        <v>0</v>
-      </c>
-      <c r="J6" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="74" t="s">
+      <c r="C20" s="78">
+        <v>0</v>
+      </c>
+      <c r="D20" s="78">
+        <v>0</v>
+      </c>
+      <c r="E20" s="78">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="F20" s="78">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G20" s="78">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="H20" s="78">
+        <v>32</v>
+      </c>
+      <c r="I20" s="78">
+        <v>0</v>
+      </c>
+      <c r="J20" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="74">
-        <v>0</v>
-      </c>
-      <c r="D7" s="74">
-        <v>0</v>
-      </c>
-      <c r="E7" s="74">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="F7" s="74">
-        <v>2E-3</v>
-      </c>
-      <c r="G7" s="74">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="H7" s="74">
-        <v>141</v>
-      </c>
-      <c r="I7" s="74">
-        <v>0</v>
-      </c>
-      <c r="J7" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="74" t="s">
+      <c r="C21" s="77">
+        <v>0</v>
+      </c>
+      <c r="D21" s="77">
+        <v>0</v>
+      </c>
+      <c r="E21" s="77">
+        <v>0</v>
+      </c>
+      <c r="F21" s="77">
+        <v>0</v>
+      </c>
+      <c r="G21" s="77">
+        <v>0</v>
+      </c>
+      <c r="H21" s="77">
+        <v>10</v>
+      </c>
+      <c r="I21" s="77">
+        <v>0</v>
+      </c>
+      <c r="J21" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="74">
-        <v>0</v>
-      </c>
-      <c r="D8" s="74">
-        <v>0</v>
-      </c>
-      <c r="E8" s="74">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="F8" s="74">
-        <v>1E-3</v>
-      </c>
-      <c r="G8" s="74">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="H8" s="74">
-        <v>112</v>
-      </c>
-      <c r="I8" s="74">
-        <v>0</v>
-      </c>
-      <c r="J8" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="74">
-        <v>0</v>
-      </c>
-      <c r="D9" s="74">
-        <v>0</v>
-      </c>
-      <c r="E9" s="74">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="F9" s="74">
-        <v>1E-3</v>
-      </c>
-      <c r="G9" s="74">
-        <v>0.06</v>
-      </c>
-      <c r="H9" s="74">
-        <v>173</v>
-      </c>
-      <c r="I9" s="74">
-        <v>0</v>
-      </c>
-      <c r="J9" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="74">
-        <v>0</v>
-      </c>
-      <c r="D10" s="74">
-        <v>0</v>
-      </c>
-      <c r="E10" s="74">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="F10" s="74">
-        <v>1E-3</v>
-      </c>
-      <c r="G10" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="H10" s="74">
-        <v>60</v>
-      </c>
-      <c r="I10" s="74">
-        <v>0</v>
-      </c>
-      <c r="J10" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="74">
-        <v>0</v>
-      </c>
-      <c r="D11" s="74">
-        <v>0</v>
-      </c>
-      <c r="E11" s="74">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="F11" s="74">
-        <v>1E-3</v>
-      </c>
-      <c r="G11" s="74">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="H11" s="74">
-        <v>32</v>
-      </c>
-      <c r="I11" s="74">
-        <v>0</v>
-      </c>
-      <c r="J11" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="74" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="74">
-        <v>0</v>
-      </c>
-      <c r="D12" s="74">
-        <v>0</v>
-      </c>
-      <c r="E12" s="74">
-        <v>0.113</v>
-      </c>
-      <c r="F12" s="74">
-        <v>1E-3</v>
-      </c>
-      <c r="G12" s="74">
-        <v>0.113</v>
-      </c>
-      <c r="H12" s="74">
-        <v>108</v>
-      </c>
-      <c r="I12" s="74">
-        <v>0</v>
-      </c>
-      <c r="J12" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="74">
-        <v>0</v>
-      </c>
-      <c r="D13" s="74">
-        <v>0</v>
-      </c>
-      <c r="E13" s="74">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="F13" s="74">
-        <v>1E-3</v>
-      </c>
-      <c r="G13" s="74">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="H13" s="74">
-        <v>32</v>
-      </c>
-      <c r="I13" s="74">
-        <v>0</v>
-      </c>
-      <c r="J13" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="74">
-        <v>0</v>
-      </c>
-      <c r="D14" s="74">
-        <v>0</v>
-      </c>
-      <c r="E14" s="74">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="F14" s="74">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G14" s="74">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="H14" s="74">
-        <v>32</v>
-      </c>
-      <c r="I14" s="74">
-        <v>0</v>
-      </c>
-      <c r="J14" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="74">
-        <v>0</v>
-      </c>
-      <c r="D15" s="74">
-        <v>0</v>
-      </c>
-      <c r="E15" s="74">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="F15" s="74">
-        <v>2E-3</v>
-      </c>
-      <c r="G15" s="74">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="H15" s="74">
+      <c r="C22" s="77">
+        <v>0</v>
+      </c>
+      <c r="D22" s="77">
+        <v>0</v>
+      </c>
+      <c r="E22" s="77">
+        <v>0</v>
+      </c>
+      <c r="F22" s="77">
+        <v>0</v>
+      </c>
+      <c r="G22" s="77">
+        <v>0</v>
+      </c>
+      <c r="H22" s="77">
         <v>10</v>
       </c>
-      <c r="I15" s="74">
-        <v>0</v>
-      </c>
-      <c r="J15" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="74">
-        <v>0</v>
-      </c>
-      <c r="D16" s="74">
-        <v>0</v>
-      </c>
-      <c r="E16" s="74">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="F16" s="74">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G16" s="74">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="H16" s="74">
-        <v>34</v>
-      </c>
-      <c r="I16" s="74">
-        <v>0</v>
-      </c>
-      <c r="J16" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="74">
-        <v>0</v>
-      </c>
-      <c r="D17" s="74">
-        <v>0</v>
-      </c>
-      <c r="E17" s="74">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="F17" s="74">
-        <v>0.01</v>
-      </c>
-      <c r="G17" s="74">
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="H17" s="74">
-        <v>60</v>
-      </c>
-      <c r="I17" s="74">
-        <v>0</v>
-      </c>
-      <c r="J17" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="74" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="74">
-        <v>0</v>
-      </c>
-      <c r="D18" s="74">
-        <v>0</v>
-      </c>
-      <c r="E18" s="74">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="F18" s="74">
-        <v>0.01</v>
-      </c>
-      <c r="G18" s="74">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="H18" s="74">
-        <v>13</v>
-      </c>
-      <c r="I18" s="74">
-        <v>0</v>
-      </c>
-      <c r="J18" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="74">
-        <v>0</v>
-      </c>
-      <c r="D19" s="74">
-        <v>0</v>
-      </c>
-      <c r="E19" s="74">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="F19" s="74">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="G19" s="74">
-        <v>0.38</v>
-      </c>
-      <c r="H19" s="74">
-        <v>23</v>
-      </c>
-      <c r="I19" s="74">
-        <v>0</v>
-      </c>
-      <c r="J19" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="74">
-        <v>0</v>
-      </c>
-      <c r="D20" s="74">
-        <v>0</v>
-      </c>
-      <c r="E20" s="74">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="F20" s="74">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G20" s="74">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="H20" s="74">
-        <v>32</v>
-      </c>
-      <c r="I20" s="74">
-        <v>0</v>
-      </c>
-      <c r="J20" s="74">
+      <c r="I22" s="77">
+        <v>0</v>
+      </c>
+      <c r="J22" s="77">
         <v>0</v>
       </c>
     </row>
@@ -6836,13 +6934,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
     </row>
     <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
@@ -6995,13 +7093,13 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="77" t="s">
+      <c r="E23" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
@@ -7161,13 +7259,13 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="77" t="s">
+      <c r="E35" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="8" t="s">

--- a/Documents/WebTours Профиль нагрузки_v1.2 (Новая статистика)-1+2_4-1-1-2-1-1.xlsx
+++ b/Documents/WebTours Профиль нагрузки_v1.2 (Новая статистика)-1+2_4-1-1-2-1-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4ept_\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A0DABF-D2EF-49E4-8E92-4023897EFFA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB756FC-A349-4B72-ABCB-6330051CB9F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -607,12 +607,20 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1498,73 +1506,93 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="186">
+  <cellStyleXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1688,44 +1716,44 @@
   </cellStyleXfs>
   <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1735,16 +1763,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="38" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1756,28 +1784,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1790,14 +1818,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1816,7 +1844,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="45"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="45"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="166"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1826,10 +1855,9 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="166"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="166"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="186"/>
   </cellXfs>
-  <cellStyles count="186">
+  <cellStyles count="206">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% — акцент1 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% — акцент1 3" xfId="68" xr:uid="{268E6BE7-A460-4628-B6C2-18CCECD40D0C}"/>
@@ -1838,6 +1866,7 @@
     <cellStyle name="20% — акцент1 6" xfId="128" xr:uid="{35A7F927-BA76-4198-AFC7-7218CDFFFF79}"/>
     <cellStyle name="20% — акцент1 7" xfId="148" xr:uid="{FAC2D776-4C4D-41E9-B6FC-F6EA2B9FBDAC}"/>
     <cellStyle name="20% — акцент1 8" xfId="168" xr:uid="{0EA0C271-624B-41F4-92E2-F2E9C294F512}"/>
+    <cellStyle name="20% — акцент1 9" xfId="188" xr:uid="{A1AB1A67-2114-4BD3-ACC4-A7B563DD5B6E}"/>
     <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% — акцент2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="20% — акцент2 3" xfId="71" xr:uid="{1C91B192-28BA-45F2-B5EC-034C0D26FB12}"/>
@@ -1846,6 +1875,7 @@
     <cellStyle name="20% — акцент2 6" xfId="131" xr:uid="{7A8A43AC-4552-4A0B-8D0B-27E223ADA086}"/>
     <cellStyle name="20% — акцент2 7" xfId="151" xr:uid="{F1240C7A-7985-42BD-A478-E970FD4D018B}"/>
     <cellStyle name="20% — акцент2 8" xfId="171" xr:uid="{A24C15F8-05EA-4E34-8C22-31778F631BDC}"/>
+    <cellStyle name="20% — акцент2 9" xfId="191" xr:uid="{BE849B01-3AE0-47DE-AEC5-BEE977761D30}"/>
     <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% — акцент3 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="20% — акцент3 3" xfId="74" xr:uid="{84A6B229-B4FD-4448-A0A5-9B5EE7DCC8B7}"/>
@@ -1854,6 +1884,7 @@
     <cellStyle name="20% — акцент3 6" xfId="134" xr:uid="{4877DCD9-9B6C-431A-9D44-E7668424AAEE}"/>
     <cellStyle name="20% — акцент3 7" xfId="154" xr:uid="{47982C5D-291B-4E29-A011-AC4ACB9D3AB5}"/>
     <cellStyle name="20% — акцент3 8" xfId="174" xr:uid="{96A89367-7C10-457C-BFAE-A4181F4C13DE}"/>
+    <cellStyle name="20% — акцент3 9" xfId="194" xr:uid="{1E0BB02D-173A-40B6-86B8-5DE90B3FB616}"/>
     <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% — акцент4 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="20% — акцент4 3" xfId="77" xr:uid="{75714783-9202-4C13-99DD-FC89D88D9B4A}"/>
@@ -1862,6 +1893,7 @@
     <cellStyle name="20% — акцент4 6" xfId="137" xr:uid="{FBF2640C-D265-43E8-A835-35FA3CAE74EF}"/>
     <cellStyle name="20% — акцент4 7" xfId="157" xr:uid="{E95FD225-3363-4138-8D80-182FDA8F4E50}"/>
     <cellStyle name="20% — акцент4 8" xfId="177" xr:uid="{BE29018B-9E00-451B-8D30-0F2853854EA4}"/>
+    <cellStyle name="20% — акцент4 9" xfId="197" xr:uid="{E306593C-2A29-4465-BC1A-A063A0991A3D}"/>
     <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% — акцент5 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="20% — акцент5 3" xfId="80" xr:uid="{E67692A4-768A-4F0B-ACE4-D8B086319D33}"/>
@@ -1870,6 +1902,7 @@
     <cellStyle name="20% — акцент5 6" xfId="140" xr:uid="{958A1BAD-8565-4622-A9AA-CAF056C1CCEB}"/>
     <cellStyle name="20% — акцент5 7" xfId="160" xr:uid="{BFB52CC8-CF49-4E32-8D90-3DB8809DE174}"/>
     <cellStyle name="20% — акцент5 8" xfId="180" xr:uid="{6949B5BA-A3D6-4455-8B22-47273C6ECFF1}"/>
+    <cellStyle name="20% — акцент5 9" xfId="200" xr:uid="{AD975E17-E85C-4CFD-8D70-EF0B6464E57D}"/>
     <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% — акцент6 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="20% — акцент6 3" xfId="83" xr:uid="{CFBD5E5B-C718-4797-AA05-7830DAF47D7A}"/>
@@ -1878,6 +1911,7 @@
     <cellStyle name="20% — акцент6 6" xfId="143" xr:uid="{7C8B1D5B-3BAE-4A7F-B488-85468498D1E8}"/>
     <cellStyle name="20% — акцент6 7" xfId="163" xr:uid="{57532AEB-E672-4C0A-8EB2-682E3290AF0A}"/>
     <cellStyle name="20% — акцент6 8" xfId="183" xr:uid="{5B3045B8-7DD0-4C0D-B1BF-B466DDB48035}"/>
+    <cellStyle name="20% — акцент6 9" xfId="203" xr:uid="{2C35388E-9BB9-454B-859F-E9EFFB8B1C64}"/>
     <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% — акцент1 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="40% — акцент1 3" xfId="69" xr:uid="{1A179889-A270-4607-BC52-2C3F1A88EACA}"/>
@@ -1886,6 +1920,7 @@
     <cellStyle name="40% — акцент1 6" xfId="129" xr:uid="{A901EED4-6E11-4407-ADB0-544632D19D49}"/>
     <cellStyle name="40% — акцент1 7" xfId="149" xr:uid="{7E67D112-D62C-441E-A9F0-BBF84A42A2B5}"/>
     <cellStyle name="40% — акцент1 8" xfId="169" xr:uid="{74173D7C-C5BD-4D92-A068-0F1F3878882E}"/>
+    <cellStyle name="40% — акцент1 9" xfId="189" xr:uid="{C3A0CA1E-19CB-448F-A8B0-D28F058944A3}"/>
     <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% — акцент2 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="40% — акцент2 3" xfId="72" xr:uid="{2A9984BE-2169-4905-BFFC-C25CE18107D0}"/>
@@ -1894,6 +1929,7 @@
     <cellStyle name="40% — акцент2 6" xfId="132" xr:uid="{BF4430CD-F6E4-492C-A023-7AA24B11D4F4}"/>
     <cellStyle name="40% — акцент2 7" xfId="152" xr:uid="{F0B6BD4D-C47C-4168-8EA1-308F44017BE1}"/>
     <cellStyle name="40% — акцент2 8" xfId="172" xr:uid="{FD38FB5E-14BF-437D-B44C-20E77DDA92F2}"/>
+    <cellStyle name="40% — акцент2 9" xfId="192" xr:uid="{469EEAA7-7C3F-4642-9870-9EA159EE6962}"/>
     <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% — акцент3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="40% — акцент3 3" xfId="75" xr:uid="{448C91A8-A494-495D-B963-9C776550A109}"/>
@@ -1902,6 +1938,7 @@
     <cellStyle name="40% — акцент3 6" xfId="135" xr:uid="{EAF279A9-03CD-413C-AD4D-95F52F0E7770}"/>
     <cellStyle name="40% — акцент3 7" xfId="155" xr:uid="{134CDB5C-BCA9-4D4A-8E54-13A3FD2C6D40}"/>
     <cellStyle name="40% — акцент3 8" xfId="175" xr:uid="{0CD63C55-2B65-413A-B599-10D9991F53CD}"/>
+    <cellStyle name="40% — акцент3 9" xfId="195" xr:uid="{4703B1D9-CE8C-453A-92B2-7E9911F307DB}"/>
     <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% — акцент4 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="40% — акцент4 3" xfId="78" xr:uid="{B69218AA-AEAE-4A7A-88EB-712C1ECDC9B2}"/>
@@ -1910,6 +1947,7 @@
     <cellStyle name="40% — акцент4 6" xfId="138" xr:uid="{CA623F9C-64F0-477A-8BEC-4B70E2F8415C}"/>
     <cellStyle name="40% — акцент4 7" xfId="158" xr:uid="{1E0FCA6F-B1DC-45DC-BE69-95E76A1A73FF}"/>
     <cellStyle name="40% — акцент4 8" xfId="178" xr:uid="{19621D56-DCC0-4A6D-B686-A86D84996C56}"/>
+    <cellStyle name="40% — акцент4 9" xfId="198" xr:uid="{587462DC-EFE8-434E-9567-805C68FF382B}"/>
     <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% — акцент5 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="40% — акцент5 3" xfId="81" xr:uid="{7AE5351B-582B-4157-949F-01C9DF9D764F}"/>
@@ -1918,6 +1956,7 @@
     <cellStyle name="40% — акцент5 6" xfId="141" xr:uid="{C8453F70-959B-4A94-AD92-A5536C27EE52}"/>
     <cellStyle name="40% — акцент5 7" xfId="161" xr:uid="{F80CF29F-639B-4342-BA5E-E196DD62BFE1}"/>
     <cellStyle name="40% — акцент5 8" xfId="181" xr:uid="{AF7EC2F8-5678-460A-B0F7-5FC043E93F06}"/>
+    <cellStyle name="40% — акцент5 9" xfId="201" xr:uid="{11696D5C-6DC2-4484-BB45-DE1A49D2B72F}"/>
     <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% — акцент6 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="40% — акцент6 3" xfId="84" xr:uid="{49B63F1C-8F8D-4C9B-831B-A726E643122C}"/>
@@ -1926,6 +1965,7 @@
     <cellStyle name="40% — акцент6 6" xfId="144" xr:uid="{7F5C15DB-4800-44FE-9C8D-000620F4DF25}"/>
     <cellStyle name="40% — акцент6 7" xfId="164" xr:uid="{AF85EE67-B0E0-4DB5-AE3A-7C49166039E9}"/>
     <cellStyle name="40% — акцент6 8" xfId="184" xr:uid="{8572F7EC-403C-4A34-98D2-75F2ED7233F1}"/>
+    <cellStyle name="40% — акцент6 9" xfId="204" xr:uid="{B078E379-DE87-48CA-9EF4-9613C545A149}"/>
     <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% — акцент1 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="60% — акцент1 3" xfId="70" xr:uid="{8040EC93-2180-4AEF-9403-7A840AEBDDDB}"/>
@@ -1934,6 +1974,7 @@
     <cellStyle name="60% — акцент1 6" xfId="130" xr:uid="{93F8776A-9C46-4F30-9AB6-C39AF9B3EE4F}"/>
     <cellStyle name="60% — акцент1 7" xfId="150" xr:uid="{CB748233-A819-4845-86C5-1CAB8230DA5A}"/>
     <cellStyle name="60% — акцент1 8" xfId="170" xr:uid="{43098294-72D0-4B1B-AC52-E23B5445FD73}"/>
+    <cellStyle name="60% — акцент1 9" xfId="190" xr:uid="{C72DE664-5E2F-405F-96D0-609F699724CC}"/>
     <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% — акцент2 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="60% — акцент2 3" xfId="73" xr:uid="{6241CEF9-175E-4980-973E-6D24003ACCC4}"/>
@@ -1942,6 +1983,7 @@
     <cellStyle name="60% — акцент2 6" xfId="133" xr:uid="{D211B759-9D0E-420C-876C-0C9B6B7293CB}"/>
     <cellStyle name="60% — акцент2 7" xfId="153" xr:uid="{FFD3E9A7-FF3D-42E9-B7C7-0B93139D7338}"/>
     <cellStyle name="60% — акцент2 8" xfId="173" xr:uid="{020A64B2-1CE7-41AE-84C2-331740430A60}"/>
+    <cellStyle name="60% — акцент2 9" xfId="193" xr:uid="{8874FF38-3DA3-43C9-914B-09CC298F4A55}"/>
     <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% — акцент3 2" xfId="56" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="60% — акцент3 3" xfId="76" xr:uid="{8DC5A82C-DDAE-45AF-B4C3-D26501EDB9E5}"/>
@@ -1950,6 +1992,7 @@
     <cellStyle name="60% — акцент3 6" xfId="136" xr:uid="{FA5B9E27-9DDF-4D73-805E-2A7367274512}"/>
     <cellStyle name="60% — акцент3 7" xfId="156" xr:uid="{B026D754-C18C-4AD0-A4F2-EF9C31C8A5FA}"/>
     <cellStyle name="60% — акцент3 8" xfId="176" xr:uid="{E962C283-475B-495F-8A5B-0AAA2C270584}"/>
+    <cellStyle name="60% — акцент3 9" xfId="196" xr:uid="{15AF0685-E4CF-414E-AA1F-E609E7FFC3F1}"/>
     <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% — акцент4 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
     <cellStyle name="60% — акцент4 3" xfId="79" xr:uid="{471B8360-8D0E-4186-8059-2FAD71E37544}"/>
@@ -1958,6 +2001,7 @@
     <cellStyle name="60% — акцент4 6" xfId="139" xr:uid="{59E0C967-2A9B-424D-8919-A44FB07F462B}"/>
     <cellStyle name="60% — акцент4 7" xfId="159" xr:uid="{9016AAD4-0D0A-4952-85AC-6FFDEDD4B36C}"/>
     <cellStyle name="60% — акцент4 8" xfId="179" xr:uid="{8C8A99FC-9D70-4DD4-9748-3BF05CD1C04E}"/>
+    <cellStyle name="60% — акцент4 9" xfId="199" xr:uid="{3ED5FC9D-A4B4-4201-B339-79DE93BAED6A}"/>
     <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% — акцент5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
     <cellStyle name="60% — акцент5 3" xfId="82" xr:uid="{E0A9EFA6-310E-4D93-BDC5-11C9D3EEA735}"/>
@@ -1966,6 +2010,7 @@
     <cellStyle name="60% — акцент5 6" xfId="142" xr:uid="{4250F437-1574-4F71-B3F9-DE697EC50BAA}"/>
     <cellStyle name="60% — акцент5 7" xfId="162" xr:uid="{D53C4FDF-71B3-4ED1-975F-94949E307DB1}"/>
     <cellStyle name="60% — акцент5 8" xfId="182" xr:uid="{AFC4CA3C-F4E2-4186-9E77-222360D32307}"/>
+    <cellStyle name="60% — акцент5 9" xfId="202" xr:uid="{6144972F-DBEB-40C9-B196-63E9D4F72DAB}"/>
     <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% — акцент6 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="60% — акцент6 3" xfId="85" xr:uid="{5539DCAA-F95A-43B3-BF58-57421525D578}"/>
@@ -1974,6 +2019,7 @@
     <cellStyle name="60% — акцент6 6" xfId="145" xr:uid="{6B9EC6F4-251E-4C96-92F5-CAF71BCD0F83}"/>
     <cellStyle name="60% — акцент6 7" xfId="165" xr:uid="{938E066C-07EE-4980-B5CE-AB3391638256}"/>
     <cellStyle name="60% — акцент6 8" xfId="185" xr:uid="{95F0E5C6-AC2A-4E00-A74D-0F984571AE3E}"/>
+    <cellStyle name="60% — акцент6 9" xfId="205" xr:uid="{258B75C4-9A83-4F45-A5CD-9B0F26B4467C}"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -1994,6 +2040,7 @@
     <cellStyle name="Нейтральный 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 10" xfId="166" xr:uid="{4D99C186-79FA-4E11-9B45-FCE36BB1968D}"/>
+    <cellStyle name="Обычный 11" xfId="186" xr:uid="{0B7D584B-4485-4A30-8353-D616C1D3A325}"/>
     <cellStyle name="Обычный 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="Обычный 3" xfId="42" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
     <cellStyle name="Обычный 4" xfId="45" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
@@ -2004,6 +2051,7 @@
     <cellStyle name="Обычный 9" xfId="146" xr:uid="{C5E3ABA6-1025-4A59-B953-F10145AC2E2A}"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Примечание 10" xfId="187" xr:uid="{6A9A507E-BDF3-4655-AB68-D8920B382921}"/>
     <cellStyle name="Примечание 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
     <cellStyle name="Примечание 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
     <cellStyle name="Примечание 4" xfId="67" xr:uid="{623D923C-0617-4865-BAA8-9E5247ACA241}"/>
@@ -2018,27 +2066,6 @@
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2072,6 +2099,27 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2739,6 +2787,136 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I61:J71" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="1" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Сумма по полю Итого" fld="6" baseField="1" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="5">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="Сводная таблица2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -2818,156 +2996,26 @@
     <dataField name="Сумма по полю Итого" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="7">
+    <format dxfId="12">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
     <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="4">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="3">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="2">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="1">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="0">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I61:J71" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="1" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Сумма по полю Итого" fld="6" baseField="1" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="12">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="11">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="10">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="9">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="8">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="7">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -3247,8 +3295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4592,10 +4640,10 @@
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="74" t="s">
+      <c r="A35" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="75"/>
+      <c r="B35" s="76"/>
     </row>
     <row r="36" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A36" s="38" t="s">
@@ -5082,29 +5130,29 @@
         <v>41.333333333333336</v>
       </c>
       <c r="C53" s="36">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D53" s="33">
         <f>60/C53</f>
-        <v>5</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="E53" s="47">
         <v>20</v>
       </c>
       <c r="F53" s="45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G53" s="20">
         <f>ROUND(F53,0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H53" s="20">
         <f>G53*D53*E53</f>
-        <v>200</v>
+        <v>177.77777777777777</v>
       </c>
       <c r="I53" s="31">
         <f>1-B53/H53</f>
-        <v>0.79333333333333333</v>
+        <v>0.76749999999999996</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -5116,29 +5164,29 @@
         <v>50</v>
       </c>
       <c r="C54" s="36">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D54" s="33">
         <f>60/C54</f>
-        <v>5</v>
+        <v>1.4634146341463414</v>
       </c>
       <c r="E54" s="47">
         <v>20</v>
       </c>
       <c r="F54" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" s="20">
         <f>ROUND(F54,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" s="20">
         <f>G54*D54*E54</f>
-        <v>200</v>
+        <v>29.268292682926827</v>
       </c>
       <c r="I54" s="31">
         <f>1-B54/H54</f>
-        <v>0.75</v>
+        <v>-0.70833333333333348</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -5150,29 +5198,29 @@
         <v>10</v>
       </c>
       <c r="C55" s="46">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D55" s="33">
         <f>60/C55</f>
-        <v>5</v>
+        <v>3.5294117647058822</v>
       </c>
       <c r="E55" s="47">
         <v>20</v>
       </c>
       <c r="F55" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" s="20">
         <f>ROUND(F55,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55" s="20">
         <f>G55*D55*E55</f>
-        <v>200</v>
+        <v>70.588235294117652</v>
       </c>
       <c r="I55" s="31">
         <f>1-B55/H55</f>
-        <v>0.95</v>
+        <v>0.85833333333333339</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -5184,11 +5232,11 @@
         <v>6.666666666666667</v>
       </c>
       <c r="C56" s="36">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D56" s="33">
         <f>60/C56</f>
-        <v>5</v>
+        <v>2.6086956521739131</v>
       </c>
       <c r="E56" s="47">
         <v>20</v>
@@ -5202,11 +5250,11 @@
       </c>
       <c r="H56" s="20">
         <f>G56*D56*E56</f>
-        <v>200</v>
+        <v>104.34782608695653</v>
       </c>
       <c r="I56" s="31">
         <f>1-B56/H56</f>
-        <v>0.96666666666666667</v>
+        <v>0.93611111111111112</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -5218,35 +5266,35 @@
         <v>40</v>
       </c>
       <c r="C57" s="36">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D57" s="33">
         <f>60/C57</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E57" s="47">
         <v>20</v>
       </c>
       <c r="F57" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57" s="20">
         <f>ROUND(F57,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" s="20">
         <f>G57*D57*E57</f>
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="I57" s="31">
         <f>1-B57/H57</f>
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G58" s="20">
         <f>SUM(G53:G57)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -5287,22 +5335,22 @@
       </c>
       <c r="C62" s="20">
         <f t="shared" ref="C62:C87" si="23">VLOOKUP(A62,$A$53:$H$57,6,FALSE)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62">
         <f t="shared" ref="D62:D87" si="24">VLOOKUP(A62,$A$53:$H$57,3,FALSE)</f>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E62" s="20">
         <f>60/D62</f>
-        <v>5</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="F62">
         <v>20</v>
       </c>
       <c r="G62" s="20">
         <f>C62*E62*F62</f>
-        <v>200</v>
+        <v>177.77777777777777</v>
       </c>
       <c r="I62" s="17" t="s">
         <v>93</v>
@@ -5320,22 +5368,22 @@
       </c>
       <c r="C63" s="20">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E63" s="20">
         <f t="shared" ref="E63:E87" si="25">60/D63</f>
-        <v>5</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="F63">
         <v>20</v>
       </c>
       <c r="G63" s="20">
         <f t="shared" ref="G63:G87" si="26">C63*E63*F63</f>
-        <v>200</v>
+        <v>177.77777777777777</v>
       </c>
       <c r="I63" s="17" t="s">
         <v>90</v>
@@ -5353,22 +5401,22 @@
       </c>
       <c r="C64" s="20">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E64" s="20">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="F64">
         <v>20</v>
       </c>
       <c r="G64" s="20">
         <f t="shared" si="26"/>
-        <v>200</v>
+        <v>177.77777777777777</v>
       </c>
       <c r="I64" s="17" t="s">
         <v>92</v>
@@ -5386,22 +5434,22 @@
       </c>
       <c r="C65" s="20">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E65" s="20">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="F65">
         <v>20</v>
       </c>
       <c r="G65" s="20">
         <f t="shared" si="26"/>
-        <v>200</v>
+        <v>177.77777777777777</v>
       </c>
       <c r="I65" s="63" t="s">
         <v>95</v>
@@ -5419,22 +5467,22 @@
       </c>
       <c r="C66" s="20">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E66" s="20">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="F66">
         <v>20</v>
       </c>
       <c r="G66" s="20">
         <f t="shared" si="26"/>
-        <v>200</v>
+        <v>177.77777777777777</v>
       </c>
       <c r="I66" s="63" t="s">
         <v>64</v>
@@ -5452,22 +5500,22 @@
       </c>
       <c r="C67" s="20">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E67" s="20">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="F67">
         <v>20</v>
       </c>
       <c r="G67" s="20">
         <f t="shared" si="26"/>
-        <v>200</v>
+        <v>177.77777777777777</v>
       </c>
       <c r="I67" s="17" t="s">
         <v>91</v>
@@ -5485,22 +5533,22 @@
       </c>
       <c r="C68" s="20">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E68" s="20">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="F68">
         <v>20</v>
       </c>
       <c r="G68" s="20">
         <f t="shared" si="26"/>
-        <v>200</v>
+        <v>177.77777777777777</v>
       </c>
       <c r="I68" s="63" t="s">
         <v>94</v>
@@ -5518,22 +5566,22 @@
       </c>
       <c r="C69" s="20">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E69" s="20">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>1.4634146341463414</v>
       </c>
       <c r="F69">
         <v>20</v>
       </c>
       <c r="G69" s="20">
         <f t="shared" si="26"/>
-        <v>200</v>
+        <v>29.268292682926827</v>
       </c>
       <c r="I69" s="17" t="s">
         <v>97</v>
@@ -5551,22 +5599,22 @@
       </c>
       <c r="C70" s="20">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E70" s="20">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>1.4634146341463414</v>
       </c>
       <c r="F70">
         <v>20</v>
       </c>
       <c r="G70" s="20">
         <f t="shared" si="26"/>
-        <v>200</v>
+        <v>29.268292682926827</v>
       </c>
       <c r="I70" s="63" t="s">
         <v>98</v>
@@ -5584,22 +5632,22 @@
       </c>
       <c r="C71" s="20">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E71" s="20">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>1.4634146341463414</v>
       </c>
       <c r="F71">
         <v>20</v>
       </c>
       <c r="G71" s="20">
         <f t="shared" si="26"/>
-        <v>200</v>
+        <v>29.268292682926827</v>
       </c>
       <c r="I71" s="17" t="s">
         <v>39</v>
@@ -5617,22 +5665,22 @@
       </c>
       <c r="C72" s="20">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E72" s="20">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>3.5294117647058822</v>
       </c>
       <c r="F72">
         <v>20</v>
       </c>
       <c r="G72" s="20">
         <f t="shared" si="26"/>
-        <v>200</v>
+        <v>70.588235294117652</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -5644,22 +5692,22 @@
       </c>
       <c r="C73" s="20">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E73" s="20">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>3.5294117647058822</v>
       </c>
       <c r="F73">
         <v>20</v>
       </c>
       <c r="G73" s="20">
         <f t="shared" si="26"/>
-        <v>200</v>
+        <v>70.588235294117652</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -5671,22 +5719,22 @@
       </c>
       <c r="C74" s="20">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E74" s="20">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>3.5294117647058822</v>
       </c>
       <c r="F74">
         <v>20</v>
       </c>
       <c r="G74" s="20">
         <f t="shared" si="26"/>
-        <v>200</v>
+        <v>70.588235294117652</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -5698,22 +5746,22 @@
       </c>
       <c r="C75" s="20">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E75" s="20">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>3.5294117647058822</v>
       </c>
       <c r="F75">
         <v>20</v>
       </c>
       <c r="G75" s="20">
         <f t="shared" si="26"/>
-        <v>200</v>
+        <v>70.588235294117652</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -5725,22 +5773,22 @@
       </c>
       <c r="C76" s="20">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E76" s="20">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>3.5294117647058822</v>
       </c>
       <c r="F76">
         <v>20</v>
       </c>
       <c r="G76" s="20">
         <f t="shared" si="26"/>
-        <v>200</v>
+        <v>70.588235294117652</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -5756,18 +5804,18 @@
       </c>
       <c r="D77">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E77" s="20">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>2.6086956521739131</v>
       </c>
       <c r="F77">
         <v>20</v>
       </c>
       <c r="G77" s="20">
         <f t="shared" si="26"/>
-        <v>200</v>
+        <v>104.34782608695653</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -5783,18 +5831,18 @@
       </c>
       <c r="D78">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E78" s="20">
         <f>60/D78</f>
-        <v>5</v>
+        <v>2.6086956521739131</v>
       </c>
       <c r="F78">
         <v>20</v>
       </c>
       <c r="G78" s="20">
         <f t="shared" si="26"/>
-        <v>200</v>
+        <v>104.34782608695653</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -5810,18 +5858,18 @@
       </c>
       <c r="D79">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E79" s="20">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>2.6086956521739131</v>
       </c>
       <c r="F79">
         <v>20</v>
       </c>
       <c r="G79" s="20">
         <f t="shared" si="26"/>
-        <v>200</v>
+        <v>104.34782608695653</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -5837,18 +5885,18 @@
       </c>
       <c r="D80">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E80" s="20">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>2.6086956521739131</v>
       </c>
       <c r="F80">
         <v>20</v>
       </c>
       <c r="G80" s="20">
         <f t="shared" si="26"/>
-        <v>200</v>
+        <v>104.34782608695653</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -5864,18 +5912,18 @@
       </c>
       <c r="D81">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E81" s="20">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>2.6086956521739131</v>
       </c>
       <c r="F81">
         <v>20</v>
       </c>
       <c r="G81" s="20">
         <f t="shared" si="26"/>
-        <v>200</v>
+        <v>104.34782608695653</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -5891,18 +5939,18 @@
       </c>
       <c r="D82">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E82" s="20">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>2.6086956521739131</v>
       </c>
       <c r="F82">
         <v>20</v>
       </c>
       <c r="G82" s="20">
         <f t="shared" si="26"/>
-        <v>200</v>
+        <v>104.34782608695653</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -5918,18 +5966,18 @@
       </c>
       <c r="D83">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E83" s="20">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>2.6086956521739131</v>
       </c>
       <c r="F83">
         <v>20</v>
       </c>
       <c r="G83" s="20">
         <f t="shared" si="26"/>
-        <v>200</v>
+        <v>104.34782608695653</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -5941,22 +5989,22 @@
       </c>
       <c r="C84" s="20">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E84" s="20">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F84">
         <v>20</v>
       </c>
       <c r="G84" s="20">
         <f t="shared" si="26"/>
-        <v>200</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -5968,22 +6016,22 @@
       </c>
       <c r="C85" s="20">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E85" s="20">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F85">
         <v>20</v>
       </c>
       <c r="G85" s="20">
         <f t="shared" si="26"/>
-        <v>200</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -5995,22 +6043,22 @@
       </c>
       <c r="C86" s="20">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E86" s="20">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F86">
         <v>20</v>
       </c>
       <c r="G86" s="20">
         <f t="shared" si="26"/>
-        <v>200</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -6022,22 +6070,22 @@
       </c>
       <c r="C87" s="20">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E87" s="20">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F87">
         <v>20</v>
       </c>
       <c r="G87" s="20">
         <f t="shared" si="26"/>
-        <v>200</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -6244,13 +6292,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="78">
-        <v>1.7210000000000001</v>
+        <v>31.52</v>
       </c>
       <c r="F2" s="78">
-        <v>0.41699999999999998</v>
+        <v>6.4509999999999996</v>
       </c>
       <c r="G2" s="78">
-        <v>1.5680000000000001</v>
+        <v>31.359000000000002</v>
       </c>
       <c r="H2" s="78">
         <v>172</v>
@@ -6375,7 +6423,7 @@
         <v>0.78500000000000003</v>
       </c>
       <c r="F6" s="78">
-        <v>4.7E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="G6" s="78">
         <v>0.71</v>
@@ -6407,7 +6455,7 @@
         <v>0.223</v>
       </c>
       <c r="F7" s="78">
-        <v>1.9E-2</v>
+        <v>0.02</v>
       </c>
       <c r="G7" s="78">
         <v>0.157</v>
@@ -6631,7 +6679,7 @@
         <v>0.156</v>
       </c>
       <c r="F14" s="78">
-        <v>1.4999999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="G14" s="78">
         <v>0.14299999999999999</v>
@@ -6660,13 +6708,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="78">
-        <v>0.40100000000000002</v>
+        <v>10.42</v>
       </c>
       <c r="F15" s="78">
-        <v>2.7E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G15" s="78">
-        <v>0.39300000000000002</v>
+        <v>10.417999999999999</v>
       </c>
       <c r="H15" s="78">
         <v>10</v>
@@ -6692,13 +6740,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="78">
-        <v>0.70599999999999996</v>
+        <v>25.734000000000002</v>
       </c>
       <c r="F16" s="78">
-        <v>3.5999999999999997E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="G16" s="78">
-        <v>0.66500000000000004</v>
+        <v>25.707999999999998</v>
       </c>
       <c r="H16" s="78">
         <v>34</v>
@@ -6724,13 +6772,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="78">
-        <v>1.492</v>
+        <v>31.52</v>
       </c>
       <c r="F17" s="78">
-        <v>6.8000000000000005E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="G17" s="78">
-        <v>1.365</v>
+        <v>31.408999999999999</v>
       </c>
       <c r="H17" s="78">
         <v>60</v>
@@ -6756,13 +6804,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="78">
-        <v>1.242</v>
+        <v>21.282</v>
       </c>
       <c r="F18" s="78">
-        <v>7.0999999999999994E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="G18" s="78">
-        <v>1.2330000000000001</v>
+        <v>21.245999999999999</v>
       </c>
       <c r="H18" s="78">
         <v>13</v>
@@ -6788,13 +6836,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="78">
-        <v>1.72</v>
+        <v>21.751000000000001</v>
       </c>
       <c r="F19" s="78">
-        <v>7.8E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="G19" s="78">
-        <v>1.6990000000000001</v>
+        <v>21.718</v>
       </c>
       <c r="H19" s="78">
         <v>23</v>
@@ -6820,13 +6868,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="78">
-        <v>0.65600000000000003</v>
+        <v>16.696000000000002</v>
       </c>
       <c r="F20" s="78">
-        <v>3.5000000000000003E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="G20" s="78">
-        <v>0.58599999999999997</v>
+        <v>16.626999999999999</v>
       </c>
       <c r="H20" s="78">
         <v>32</v>
@@ -6839,66 +6887,66 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="77">
-        <v>0</v>
-      </c>
-      <c r="D21" s="77">
-        <v>0</v>
-      </c>
-      <c r="E21" s="77">
-        <v>0</v>
-      </c>
-      <c r="F21" s="77">
-        <v>0</v>
-      </c>
-      <c r="G21" s="77">
-        <v>0</v>
-      </c>
-      <c r="H21" s="77">
+      <c r="C21" s="74">
+        <v>0</v>
+      </c>
+      <c r="D21" s="74">
+        <v>0</v>
+      </c>
+      <c r="E21" s="74">
+        <v>0</v>
+      </c>
+      <c r="F21" s="74">
+        <v>0</v>
+      </c>
+      <c r="G21" s="74">
+        <v>0</v>
+      </c>
+      <c r="H21" s="74">
         <v>10</v>
       </c>
-      <c r="I21" s="77">
-        <v>0</v>
-      </c>
-      <c r="J21" s="77">
+      <c r="I21" s="74">
+        <v>0</v>
+      </c>
+      <c r="J21" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="77">
-        <v>0</v>
-      </c>
-      <c r="D22" s="77">
-        <v>0</v>
-      </c>
-      <c r="E22" s="77">
-        <v>0</v>
-      </c>
-      <c r="F22" s="77">
-        <v>0</v>
-      </c>
-      <c r="G22" s="77">
-        <v>0</v>
-      </c>
-      <c r="H22" s="77">
+      <c r="C22" s="74">
+        <v>0</v>
+      </c>
+      <c r="D22" s="74">
+        <v>0</v>
+      </c>
+      <c r="E22" s="74">
+        <v>0</v>
+      </c>
+      <c r="F22" s="74">
+        <v>0</v>
+      </c>
+      <c r="G22" s="74">
+        <v>0</v>
+      </c>
+      <c r="H22" s="74">
         <v>10</v>
       </c>
-      <c r="I22" s="77">
-        <v>0</v>
-      </c>
-      <c r="J22" s="77">
+      <c r="I22" s="74">
+        <v>0</v>
+      </c>
+      <c r="J22" s="74">
         <v>0</v>
       </c>
     </row>
@@ -6934,13 +6982,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
     </row>
     <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
@@ -7093,13 +7141,13 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="76" t="s">
+      <c r="E23" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
@@ -7259,13 +7307,13 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="76" t="s">
+      <c r="E35" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="8" t="s">

--- a/Documents/WebTours Профиль нагрузки_v1.2 (Новая статистика)-1+2_4-1-1-2-1-1.xlsx
+++ b/Documents/WebTours Профиль нагрузки_v1.2 (Новая статистика)-1+2_4-1-1-2-1-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4ept_\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB756FC-A349-4B72-ABCB-6330051CB9F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853FB790-53A1-484F-A0E3-E3891E73FA97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -607,12 +607,20 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1506,73 +1514,93 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="206">
+  <cellStyleXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1716,44 +1744,44 @@
   </cellStyleXfs>
   <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1763,16 +1791,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="38" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1784,28 +1812,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1818,14 +1846,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1844,8 +1872,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="45"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="166"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="45"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="166"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1855,10 +1883,11 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="186"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="206"/>
   </cellXfs>
-  <cellStyles count="206">
+  <cellStyles count="226">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент1 10" xfId="208" xr:uid="{D9BE2F77-851F-440D-BB99-7698A5D96668}"/>
     <cellStyle name="20% — акцент1 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% — акцент1 3" xfId="68" xr:uid="{268E6BE7-A460-4628-B6C2-18CCECD40D0C}"/>
     <cellStyle name="20% — акцент1 4" xfId="88" xr:uid="{C4249554-A403-4599-96E6-54E0771BF56A}"/>
@@ -1868,6 +1897,7 @@
     <cellStyle name="20% — акцент1 8" xfId="168" xr:uid="{0EA0C271-624B-41F4-92E2-F2E9C294F512}"/>
     <cellStyle name="20% — акцент1 9" xfId="188" xr:uid="{A1AB1A67-2114-4BD3-ACC4-A7B563DD5B6E}"/>
     <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2 10" xfId="211" xr:uid="{248A89EA-27C9-4C6E-99C3-C86C3DD02633}"/>
     <cellStyle name="20% — акцент2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="20% — акцент2 3" xfId="71" xr:uid="{1C91B192-28BA-45F2-B5EC-034C0D26FB12}"/>
     <cellStyle name="20% — акцент2 4" xfId="91" xr:uid="{4593AF67-D3BE-41E7-AA86-05E38698F7B3}"/>
@@ -1877,6 +1907,7 @@
     <cellStyle name="20% — акцент2 8" xfId="171" xr:uid="{A24C15F8-05EA-4E34-8C22-31778F631BDC}"/>
     <cellStyle name="20% — акцент2 9" xfId="191" xr:uid="{BE849B01-3AE0-47DE-AEC5-BEE977761D30}"/>
     <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3 10" xfId="214" xr:uid="{022DBFBF-BC8E-4E17-91C6-E37461FF53CF}"/>
     <cellStyle name="20% — акцент3 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="20% — акцент3 3" xfId="74" xr:uid="{84A6B229-B4FD-4448-A0A5-9B5EE7DCC8B7}"/>
     <cellStyle name="20% — акцент3 4" xfId="94" xr:uid="{A01BF0E3-01F2-4132-9A38-7B374199E5BF}"/>
@@ -1886,6 +1917,7 @@
     <cellStyle name="20% — акцент3 8" xfId="174" xr:uid="{96A89367-7C10-457C-BFAE-A4181F4C13DE}"/>
     <cellStyle name="20% — акцент3 9" xfId="194" xr:uid="{1E0BB02D-173A-40B6-86B8-5DE90B3FB616}"/>
     <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4 10" xfId="217" xr:uid="{CCCB6727-9F65-4693-BD89-A140082D3F00}"/>
     <cellStyle name="20% — акцент4 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="20% — акцент4 3" xfId="77" xr:uid="{75714783-9202-4C13-99DD-FC89D88D9B4A}"/>
     <cellStyle name="20% — акцент4 4" xfId="97" xr:uid="{67585C03-275D-41CF-9350-93E31B43AF1D}"/>
@@ -1895,6 +1927,7 @@
     <cellStyle name="20% — акцент4 8" xfId="177" xr:uid="{BE29018B-9E00-451B-8D30-0F2853854EA4}"/>
     <cellStyle name="20% — акцент4 9" xfId="197" xr:uid="{E306593C-2A29-4465-BC1A-A063A0991A3D}"/>
     <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5 10" xfId="220" xr:uid="{10042EBE-86A0-414B-B0E3-EC2D24E75F12}"/>
     <cellStyle name="20% — акцент5 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="20% — акцент5 3" xfId="80" xr:uid="{E67692A4-768A-4F0B-ACE4-D8B086319D33}"/>
     <cellStyle name="20% — акцент5 4" xfId="100" xr:uid="{C0192F6D-A40A-4327-B1E2-351753E223AE}"/>
@@ -1904,6 +1937,7 @@
     <cellStyle name="20% — акцент5 8" xfId="180" xr:uid="{6949B5BA-A3D6-4455-8B22-47273C6ECFF1}"/>
     <cellStyle name="20% — акцент5 9" xfId="200" xr:uid="{AD975E17-E85C-4CFD-8D70-EF0B6464E57D}"/>
     <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6 10" xfId="223" xr:uid="{2A4FE19A-CB7D-450C-841B-4020F6C42B31}"/>
     <cellStyle name="20% — акцент6 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="20% — акцент6 3" xfId="83" xr:uid="{CFBD5E5B-C718-4797-AA05-7830DAF47D7A}"/>
     <cellStyle name="20% — акцент6 4" xfId="103" xr:uid="{B9531024-B912-4064-9356-E4777D54FA33}"/>
@@ -1913,6 +1947,7 @@
     <cellStyle name="20% — акцент6 8" xfId="183" xr:uid="{5B3045B8-7DD0-4C0D-B1BF-B466DDB48035}"/>
     <cellStyle name="20% — акцент6 9" xfId="203" xr:uid="{2C35388E-9BB9-454B-859F-E9EFFB8B1C64}"/>
     <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1 10" xfId="209" xr:uid="{E63D9A98-80EC-4E32-B0D7-4E2E442DFA74}"/>
     <cellStyle name="40% — акцент1 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="40% — акцент1 3" xfId="69" xr:uid="{1A179889-A270-4607-BC52-2C3F1A88EACA}"/>
     <cellStyle name="40% — акцент1 4" xfId="89" xr:uid="{DFBCB794-A8C9-46B5-9BAF-F983C41EF545}"/>
@@ -1922,6 +1957,7 @@
     <cellStyle name="40% — акцент1 8" xfId="169" xr:uid="{74173D7C-C5BD-4D92-A068-0F1F3878882E}"/>
     <cellStyle name="40% — акцент1 9" xfId="189" xr:uid="{C3A0CA1E-19CB-448F-A8B0-D28F058944A3}"/>
     <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2 10" xfId="212" xr:uid="{EE03B0FF-9500-4D8F-B968-DAC75D2C5DC4}"/>
     <cellStyle name="40% — акцент2 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="40% — акцент2 3" xfId="72" xr:uid="{2A9984BE-2169-4905-BFFC-C25CE18107D0}"/>
     <cellStyle name="40% — акцент2 4" xfId="92" xr:uid="{D9BAA050-B096-4644-B16F-7774B7A0568B}"/>
@@ -1931,6 +1967,7 @@
     <cellStyle name="40% — акцент2 8" xfId="172" xr:uid="{FD38FB5E-14BF-437D-B44C-20E77DDA92F2}"/>
     <cellStyle name="40% — акцент2 9" xfId="192" xr:uid="{469EEAA7-7C3F-4642-9870-9EA159EE6962}"/>
     <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3 10" xfId="215" xr:uid="{AA20B1C1-4ABE-4547-9858-0431031855A2}"/>
     <cellStyle name="40% — акцент3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="40% — акцент3 3" xfId="75" xr:uid="{448C91A8-A494-495D-B963-9C776550A109}"/>
     <cellStyle name="40% — акцент3 4" xfId="95" xr:uid="{984CEF4C-0ECC-4E8D-BD51-07CD5D29B888}"/>
@@ -1940,6 +1977,7 @@
     <cellStyle name="40% — акцент3 8" xfId="175" xr:uid="{0CD63C55-2B65-413A-B599-10D9991F53CD}"/>
     <cellStyle name="40% — акцент3 9" xfId="195" xr:uid="{4703B1D9-CE8C-453A-92B2-7E9911F307DB}"/>
     <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4 10" xfId="218" xr:uid="{CE27EFE4-DB3D-4904-BE7D-A98AAECE1435}"/>
     <cellStyle name="40% — акцент4 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="40% — акцент4 3" xfId="78" xr:uid="{B69218AA-AEAE-4A7A-88EB-712C1ECDC9B2}"/>
     <cellStyle name="40% — акцент4 4" xfId="98" xr:uid="{5109791C-E431-49FF-81EA-36639511645E}"/>
@@ -1949,6 +1987,7 @@
     <cellStyle name="40% — акцент4 8" xfId="178" xr:uid="{19621D56-DCC0-4A6D-B686-A86D84996C56}"/>
     <cellStyle name="40% — акцент4 9" xfId="198" xr:uid="{587462DC-EFE8-434E-9567-805C68FF382B}"/>
     <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5 10" xfId="221" xr:uid="{66C01559-9FE2-4477-9CB7-F2A0DD8AEB8F}"/>
     <cellStyle name="40% — акцент5 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="40% — акцент5 3" xfId="81" xr:uid="{7AE5351B-582B-4157-949F-01C9DF9D764F}"/>
     <cellStyle name="40% — акцент5 4" xfId="101" xr:uid="{0B13C4B7-B12A-4795-94B4-E3E7CCD06368}"/>
@@ -1958,6 +1997,7 @@
     <cellStyle name="40% — акцент5 8" xfId="181" xr:uid="{AF7EC2F8-5678-460A-B0F7-5FC043E93F06}"/>
     <cellStyle name="40% — акцент5 9" xfId="201" xr:uid="{11696D5C-6DC2-4484-BB45-DE1A49D2B72F}"/>
     <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6 10" xfId="224" xr:uid="{4C66B4FF-09A8-467C-A503-103AD5B15001}"/>
     <cellStyle name="40% — акцент6 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="40% — акцент6 3" xfId="84" xr:uid="{49B63F1C-8F8D-4C9B-831B-A726E643122C}"/>
     <cellStyle name="40% — акцент6 4" xfId="104" xr:uid="{A9DA34D4-6697-43DB-AFC3-9273029E21D7}"/>
@@ -1967,6 +2007,7 @@
     <cellStyle name="40% — акцент6 8" xfId="184" xr:uid="{8572F7EC-403C-4A34-98D2-75F2ED7233F1}"/>
     <cellStyle name="40% — акцент6 9" xfId="204" xr:uid="{B078E379-DE87-48CA-9EF4-9613C545A149}"/>
     <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1 10" xfId="210" xr:uid="{C0AF7142-BD42-4AB9-96D4-E8B83E4276AD}"/>
     <cellStyle name="60% — акцент1 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="60% — акцент1 3" xfId="70" xr:uid="{8040EC93-2180-4AEF-9403-7A840AEBDDDB}"/>
     <cellStyle name="60% — акцент1 4" xfId="90" xr:uid="{976953D2-0BD3-4071-B682-D381E842DB96}"/>
@@ -1976,6 +2017,7 @@
     <cellStyle name="60% — акцент1 8" xfId="170" xr:uid="{43098294-72D0-4B1B-AC52-E23B5445FD73}"/>
     <cellStyle name="60% — акцент1 9" xfId="190" xr:uid="{C72DE664-5E2F-405F-96D0-609F699724CC}"/>
     <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2 10" xfId="213" xr:uid="{8279DE43-21C2-49FD-BDA8-20110E9EEABB}"/>
     <cellStyle name="60% — акцент2 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="60% — акцент2 3" xfId="73" xr:uid="{6241CEF9-175E-4980-973E-6D24003ACCC4}"/>
     <cellStyle name="60% — акцент2 4" xfId="93" xr:uid="{9DF5F7EC-ACDA-4B05-BC7B-0EBB9D3AD064}"/>
@@ -1985,6 +2027,7 @@
     <cellStyle name="60% — акцент2 8" xfId="173" xr:uid="{020A64B2-1CE7-41AE-84C2-331740430A60}"/>
     <cellStyle name="60% — акцент2 9" xfId="193" xr:uid="{8874FF38-3DA3-43C9-914B-09CC298F4A55}"/>
     <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3 10" xfId="216" xr:uid="{C2197ECF-31D5-4E04-8F13-89BAA1B6942D}"/>
     <cellStyle name="60% — акцент3 2" xfId="56" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="60% — акцент3 3" xfId="76" xr:uid="{8DC5A82C-DDAE-45AF-B4C3-D26501EDB9E5}"/>
     <cellStyle name="60% — акцент3 4" xfId="96" xr:uid="{5112010B-4DD0-46F5-846F-4B78B95EBAA0}"/>
@@ -1994,6 +2037,7 @@
     <cellStyle name="60% — акцент3 8" xfId="176" xr:uid="{E962C283-475B-495F-8A5B-0AAA2C270584}"/>
     <cellStyle name="60% — акцент3 9" xfId="196" xr:uid="{15AF0685-E4CF-414E-AA1F-E609E7FFC3F1}"/>
     <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4 10" xfId="219" xr:uid="{99DCAEDE-E318-4383-8809-CCDC8C3C73F6}"/>
     <cellStyle name="60% — акцент4 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
     <cellStyle name="60% — акцент4 3" xfId="79" xr:uid="{471B8360-8D0E-4186-8059-2FAD71E37544}"/>
     <cellStyle name="60% — акцент4 4" xfId="99" xr:uid="{B057BFF2-2E02-4EF7-82CD-57B047FA8040}"/>
@@ -2003,6 +2047,7 @@
     <cellStyle name="60% — акцент4 8" xfId="179" xr:uid="{8C8A99FC-9D70-4DD4-9748-3BF05CD1C04E}"/>
     <cellStyle name="60% — акцент4 9" xfId="199" xr:uid="{3ED5FC9D-A4B4-4201-B339-79DE93BAED6A}"/>
     <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5 10" xfId="222" xr:uid="{1A7B24CD-E0E9-4CAA-B075-A537A54A5EDE}"/>
     <cellStyle name="60% — акцент5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
     <cellStyle name="60% — акцент5 3" xfId="82" xr:uid="{E0A9EFA6-310E-4D93-BDC5-11C9D3EEA735}"/>
     <cellStyle name="60% — акцент5 4" xfId="102" xr:uid="{7FDCE02F-809A-4BCC-9C53-E08AAEC5C9BD}"/>
@@ -2012,6 +2057,7 @@
     <cellStyle name="60% — акцент5 8" xfId="182" xr:uid="{AFC4CA3C-F4E2-4186-9E77-222360D32307}"/>
     <cellStyle name="60% — акцент5 9" xfId="202" xr:uid="{6144972F-DBEB-40C9-B196-63E9D4F72DAB}"/>
     <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6 10" xfId="225" xr:uid="{13B87898-79D0-4439-A109-403EAF34E5D3}"/>
     <cellStyle name="60% — акцент6 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="60% — акцент6 3" xfId="85" xr:uid="{5539DCAA-F95A-43B3-BF58-57421525D578}"/>
     <cellStyle name="60% — акцент6 4" xfId="105" xr:uid="{96982149-4368-42E1-B97F-FD939CE04A1F}"/>
@@ -2041,6 +2087,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 10" xfId="166" xr:uid="{4D99C186-79FA-4E11-9B45-FCE36BB1968D}"/>
     <cellStyle name="Обычный 11" xfId="186" xr:uid="{0B7D584B-4485-4A30-8353-D616C1D3A325}"/>
+    <cellStyle name="Обычный 12" xfId="206" xr:uid="{6AA5889B-C397-4C19-A50B-46468476814B}"/>
     <cellStyle name="Обычный 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="Обычный 3" xfId="42" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
     <cellStyle name="Обычный 4" xfId="45" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
@@ -2052,6 +2099,7 @@
     <cellStyle name="Плохой" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание 10" xfId="187" xr:uid="{6A9A507E-BDF3-4655-AB68-D8920B382921}"/>
+    <cellStyle name="Примечание 11" xfId="207" xr:uid="{2A18EC6F-15D0-4FE2-B342-B08CEEE578AD}"/>
     <cellStyle name="Примечание 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
     <cellStyle name="Примечание 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
     <cellStyle name="Примечание 4" xfId="67" xr:uid="{623D923C-0617-4865-BAA8-9E5247ACA241}"/>
@@ -2066,6 +2114,27 @@
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2099,27 +2168,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2787,136 +2835,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I61:J71" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="1" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Сумма по полю Итого" fld="6" baseField="1" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="5">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="4">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="3">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="Сводная таблица2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -2996,26 +2914,156 @@
     <dataField name="Сумма по полю Итого" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="12">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I61:J71" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="1" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Сумма по полю Итого" fld="6" baseField="1" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="12">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -6292,13 +6340,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="78">
-        <v>31.52</v>
+        <v>31.687000000000001</v>
       </c>
       <c r="F2" s="78">
-        <v>6.4509999999999996</v>
+        <v>6.4660000000000002</v>
       </c>
       <c r="G2" s="78">
-        <v>31.359000000000002</v>
+        <v>31.414999999999999</v>
       </c>
       <c r="H2" s="78">
         <v>172</v>
@@ -6324,13 +6372,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="78">
-        <v>0.10199999999999999</v>
+        <v>0.128</v>
       </c>
       <c r="F3" s="78">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="G3" s="78">
-        <v>7.6999999999999999E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="H3" s="78">
         <v>95</v>
@@ -6356,13 +6404,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="78">
-        <v>9.4E-2</v>
+        <v>0.114</v>
       </c>
       <c r="F4" s="78">
-        <v>1.2E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G4" s="78">
-        <v>7.2999999999999995E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="H4" s="78">
         <v>94</v>
@@ -6388,13 +6436,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="78">
-        <v>0.69299999999999995</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="F5" s="78">
-        <v>5.0999999999999997E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="G5" s="78">
-        <v>0.65300000000000002</v>
+        <v>0.72</v>
       </c>
       <c r="H5" s="78">
         <v>24</v>
@@ -6420,13 +6468,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="78">
-        <v>0.78500000000000003</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="F6" s="78">
-        <v>4.5999999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="G6" s="78">
-        <v>0.71</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="H6" s="78">
         <v>96</v>
@@ -6452,13 +6500,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="78">
-        <v>0.223</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="F7" s="78">
-        <v>0.02</v>
+        <v>1.6E-2</v>
       </c>
       <c r="G7" s="78">
-        <v>0.157</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="H7" s="78">
         <v>141</v>
@@ -6484,13 +6532,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="78">
-        <v>0.17100000000000001</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="F8" s="78">
-        <v>1.6E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G8" s="78">
-        <v>0.12</v>
+        <v>0.128</v>
       </c>
       <c r="H8" s="78">
         <v>112</v>
@@ -6516,13 +6564,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="78">
-        <v>0.223</v>
+        <v>0.215</v>
       </c>
       <c r="F9" s="78">
-        <v>0.02</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="G9" s="78">
-        <v>0.14599999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="H9" s="78">
         <v>173</v>
@@ -6548,13 +6596,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="78">
-        <v>0.17299999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="F10" s="78">
-        <v>2.1000000000000001E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G10" s="78">
-        <v>0.11899999999999999</v>
+        <v>0.109</v>
       </c>
       <c r="H10" s="78">
         <v>60</v>
@@ -6583,10 +6631,10 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="F11" s="78">
-        <v>8.9999999999999993E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G11" s="78">
-        <v>7.1999999999999995E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="H11" s="78">
         <v>32</v>
@@ -6612,13 +6660,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="78">
-        <v>0.18</v>
+        <v>0.183</v>
       </c>
       <c r="F12" s="78">
-        <v>1.4E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G12" s="78">
-        <v>0.14799999999999999</v>
+        <v>0.155</v>
       </c>
       <c r="H12" s="78">
         <v>108</v>
@@ -6644,13 +6692,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="78">
-        <v>0.14699999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="F13" s="78">
-        <v>1.2E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G13" s="78">
-        <v>0.13500000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="H13" s="78">
         <v>32</v>
@@ -6676,13 +6724,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="78">
-        <v>0.156</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="F14" s="78">
         <v>1.6E-2</v>
       </c>
       <c r="G14" s="78">
-        <v>0.14299999999999999</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="H14" s="78">
         <v>32</v>
@@ -6708,13 +6756,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="78">
-        <v>10.42</v>
+        <v>10.407</v>
       </c>
       <c r="F15" s="78">
-        <v>0.03</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="G15" s="78">
-        <v>10.417999999999999</v>
+        <v>10.375</v>
       </c>
       <c r="H15" s="78">
         <v>10</v>
@@ -6740,13 +6788,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="78">
-        <v>25.734000000000002</v>
+        <v>25.728000000000002</v>
       </c>
       <c r="F16" s="78">
-        <v>5.5E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="G16" s="78">
-        <v>25.707999999999998</v>
+        <v>25.702000000000002</v>
       </c>
       <c r="H16" s="78">
         <v>34</v>
@@ -6772,13 +6820,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="78">
-        <v>31.52</v>
+        <v>31.687000000000001</v>
       </c>
       <c r="F17" s="78">
-        <v>5.8000000000000003E-2</v>
+        <v>0.08</v>
       </c>
       <c r="G17" s="78">
-        <v>31.408999999999999</v>
+        <v>31.471</v>
       </c>
       <c r="H17" s="78">
         <v>60</v>
@@ -6804,13 +6852,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="78">
-        <v>21.282</v>
+        <v>21.361000000000001</v>
       </c>
       <c r="F18" s="78">
-        <v>7.8E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="G18" s="78">
-        <v>21.245999999999999</v>
+        <v>21.324999999999999</v>
       </c>
       <c r="H18" s="78">
         <v>13</v>
@@ -6836,13 +6884,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="78">
-        <v>21.751000000000001</v>
+        <v>21.867999999999999</v>
       </c>
       <c r="F19" s="78">
-        <v>7.5999999999999998E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G19" s="78">
-        <v>21.718</v>
+        <v>21.815000000000001</v>
       </c>
       <c r="H19" s="78">
         <v>23</v>
@@ -6868,10 +6916,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="78">
-        <v>16.696000000000002</v>
+        <v>16.672999999999998</v>
       </c>
       <c r="F20" s="78">
-        <v>5.8999999999999997E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="G20" s="78">
         <v>16.626999999999999</v>

--- a/Documents/WebTours Профиль нагрузки_v1.2 (Новая статистика)-1+2_4-1-1-2-1-1.xlsx
+++ b/Documents/WebTours Профиль нагрузки_v1.2 (Новая статистика)-1+2_4-1-1-2-1-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4ept_\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853FB790-53A1-484F-A0E3-E3891E73FA97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9981C1-D3F7-44B6-95B5-7E2E86F6F788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -607,12 +607,20 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1514,73 +1522,93 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="226">
+  <cellStyleXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1744,44 +1772,44 @@
   </cellStyleXfs>
   <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1791,16 +1819,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="38" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1812,28 +1840,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1846,14 +1874,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1872,8 +1900,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="45"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="166"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="45"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="166"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1883,11 +1911,12 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="206"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="226"/>
   </cellXfs>
-  <cellStyles count="226">
+  <cellStyles count="246">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% — акцент1 10" xfId="208" xr:uid="{D9BE2F77-851F-440D-BB99-7698A5D96668}"/>
+    <cellStyle name="20% — акцент1 11" xfId="228" xr:uid="{2E6015DA-2219-4AB8-8D0B-A48332333EAD}"/>
     <cellStyle name="20% — акцент1 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% — акцент1 3" xfId="68" xr:uid="{268E6BE7-A460-4628-B6C2-18CCECD40D0C}"/>
     <cellStyle name="20% — акцент1 4" xfId="88" xr:uid="{C4249554-A403-4599-96E6-54E0771BF56A}"/>
@@ -1898,6 +1927,7 @@
     <cellStyle name="20% — акцент1 9" xfId="188" xr:uid="{A1AB1A67-2114-4BD3-ACC4-A7B563DD5B6E}"/>
     <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% — акцент2 10" xfId="211" xr:uid="{248A89EA-27C9-4C6E-99C3-C86C3DD02633}"/>
+    <cellStyle name="20% — акцент2 11" xfId="231" xr:uid="{0A634A19-3E4D-44C3-BD78-694BCCA5F83D}"/>
     <cellStyle name="20% — акцент2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="20% — акцент2 3" xfId="71" xr:uid="{1C91B192-28BA-45F2-B5EC-034C0D26FB12}"/>
     <cellStyle name="20% — акцент2 4" xfId="91" xr:uid="{4593AF67-D3BE-41E7-AA86-05E38698F7B3}"/>
@@ -1908,6 +1938,7 @@
     <cellStyle name="20% — акцент2 9" xfId="191" xr:uid="{BE849B01-3AE0-47DE-AEC5-BEE977761D30}"/>
     <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% — акцент3 10" xfId="214" xr:uid="{022DBFBF-BC8E-4E17-91C6-E37461FF53CF}"/>
+    <cellStyle name="20% — акцент3 11" xfId="234" xr:uid="{E8B60BFD-4F96-4FA7-9C65-C2CEAA01AA88}"/>
     <cellStyle name="20% — акцент3 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="20% — акцент3 3" xfId="74" xr:uid="{84A6B229-B4FD-4448-A0A5-9B5EE7DCC8B7}"/>
     <cellStyle name="20% — акцент3 4" xfId="94" xr:uid="{A01BF0E3-01F2-4132-9A38-7B374199E5BF}"/>
@@ -1918,6 +1949,7 @@
     <cellStyle name="20% — акцент3 9" xfId="194" xr:uid="{1E0BB02D-173A-40B6-86B8-5DE90B3FB616}"/>
     <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% — акцент4 10" xfId="217" xr:uid="{CCCB6727-9F65-4693-BD89-A140082D3F00}"/>
+    <cellStyle name="20% — акцент4 11" xfId="237" xr:uid="{7AE8C3C0-F733-4D85-98F6-A67EECB03ABE}"/>
     <cellStyle name="20% — акцент4 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="20% — акцент4 3" xfId="77" xr:uid="{75714783-9202-4C13-99DD-FC89D88D9B4A}"/>
     <cellStyle name="20% — акцент4 4" xfId="97" xr:uid="{67585C03-275D-41CF-9350-93E31B43AF1D}"/>
@@ -1928,6 +1960,7 @@
     <cellStyle name="20% — акцент4 9" xfId="197" xr:uid="{E306593C-2A29-4465-BC1A-A063A0991A3D}"/>
     <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% — акцент5 10" xfId="220" xr:uid="{10042EBE-86A0-414B-B0E3-EC2D24E75F12}"/>
+    <cellStyle name="20% — акцент5 11" xfId="240" xr:uid="{3D1CFC8F-50A0-4A4E-B56F-B89A0DD1C23A}"/>
     <cellStyle name="20% — акцент5 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="20% — акцент5 3" xfId="80" xr:uid="{E67692A4-768A-4F0B-ACE4-D8B086319D33}"/>
     <cellStyle name="20% — акцент5 4" xfId="100" xr:uid="{C0192F6D-A40A-4327-B1E2-351753E223AE}"/>
@@ -1938,6 +1971,7 @@
     <cellStyle name="20% — акцент5 9" xfId="200" xr:uid="{AD975E17-E85C-4CFD-8D70-EF0B6464E57D}"/>
     <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% — акцент6 10" xfId="223" xr:uid="{2A4FE19A-CB7D-450C-841B-4020F6C42B31}"/>
+    <cellStyle name="20% — акцент6 11" xfId="243" xr:uid="{943D5489-FF28-40B6-96C0-C605C19BFFC5}"/>
     <cellStyle name="20% — акцент6 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="20% — акцент6 3" xfId="83" xr:uid="{CFBD5E5B-C718-4797-AA05-7830DAF47D7A}"/>
     <cellStyle name="20% — акцент6 4" xfId="103" xr:uid="{B9531024-B912-4064-9356-E4777D54FA33}"/>
@@ -1948,6 +1982,7 @@
     <cellStyle name="20% — акцент6 9" xfId="203" xr:uid="{2C35388E-9BB9-454B-859F-E9EFFB8B1C64}"/>
     <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% — акцент1 10" xfId="209" xr:uid="{E63D9A98-80EC-4E32-B0D7-4E2E442DFA74}"/>
+    <cellStyle name="40% — акцент1 11" xfId="229" xr:uid="{61ED34BC-32DA-4B08-8F52-D8E81C8988D4}"/>
     <cellStyle name="40% — акцент1 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="40% — акцент1 3" xfId="69" xr:uid="{1A179889-A270-4607-BC52-2C3F1A88EACA}"/>
     <cellStyle name="40% — акцент1 4" xfId="89" xr:uid="{DFBCB794-A8C9-46B5-9BAF-F983C41EF545}"/>
@@ -1958,6 +1993,7 @@
     <cellStyle name="40% — акцент1 9" xfId="189" xr:uid="{C3A0CA1E-19CB-448F-A8B0-D28F058944A3}"/>
     <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% — акцент2 10" xfId="212" xr:uid="{EE03B0FF-9500-4D8F-B968-DAC75D2C5DC4}"/>
+    <cellStyle name="40% — акцент2 11" xfId="232" xr:uid="{7C341BE9-EF24-41DD-95E3-7B3C0BD5A20E}"/>
     <cellStyle name="40% — акцент2 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="40% — акцент2 3" xfId="72" xr:uid="{2A9984BE-2169-4905-BFFC-C25CE18107D0}"/>
     <cellStyle name="40% — акцент2 4" xfId="92" xr:uid="{D9BAA050-B096-4644-B16F-7774B7A0568B}"/>
@@ -1968,6 +2004,7 @@
     <cellStyle name="40% — акцент2 9" xfId="192" xr:uid="{469EEAA7-7C3F-4642-9870-9EA159EE6962}"/>
     <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% — акцент3 10" xfId="215" xr:uid="{AA20B1C1-4ABE-4547-9858-0431031855A2}"/>
+    <cellStyle name="40% — акцент3 11" xfId="235" xr:uid="{E88EEC9B-1613-472D-9194-09DC8C233682}"/>
     <cellStyle name="40% — акцент3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="40% — акцент3 3" xfId="75" xr:uid="{448C91A8-A494-495D-B963-9C776550A109}"/>
     <cellStyle name="40% — акцент3 4" xfId="95" xr:uid="{984CEF4C-0ECC-4E8D-BD51-07CD5D29B888}"/>
@@ -1978,6 +2015,7 @@
     <cellStyle name="40% — акцент3 9" xfId="195" xr:uid="{4703B1D9-CE8C-453A-92B2-7E9911F307DB}"/>
     <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% — акцент4 10" xfId="218" xr:uid="{CE27EFE4-DB3D-4904-BE7D-A98AAECE1435}"/>
+    <cellStyle name="40% — акцент4 11" xfId="238" xr:uid="{A34446DD-F8ED-48E8-B6F8-CBA867A77ACA}"/>
     <cellStyle name="40% — акцент4 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="40% — акцент4 3" xfId="78" xr:uid="{B69218AA-AEAE-4A7A-88EB-712C1ECDC9B2}"/>
     <cellStyle name="40% — акцент4 4" xfId="98" xr:uid="{5109791C-E431-49FF-81EA-36639511645E}"/>
@@ -1988,6 +2026,7 @@
     <cellStyle name="40% — акцент4 9" xfId="198" xr:uid="{587462DC-EFE8-434E-9567-805C68FF382B}"/>
     <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% — акцент5 10" xfId="221" xr:uid="{66C01559-9FE2-4477-9CB7-F2A0DD8AEB8F}"/>
+    <cellStyle name="40% — акцент5 11" xfId="241" xr:uid="{272EC868-C457-401C-BC69-742A410333AE}"/>
     <cellStyle name="40% — акцент5 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="40% — акцент5 3" xfId="81" xr:uid="{7AE5351B-582B-4157-949F-01C9DF9D764F}"/>
     <cellStyle name="40% — акцент5 4" xfId="101" xr:uid="{0B13C4B7-B12A-4795-94B4-E3E7CCD06368}"/>
@@ -1998,6 +2037,7 @@
     <cellStyle name="40% — акцент5 9" xfId="201" xr:uid="{11696D5C-6DC2-4484-BB45-DE1A49D2B72F}"/>
     <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% — акцент6 10" xfId="224" xr:uid="{4C66B4FF-09A8-467C-A503-103AD5B15001}"/>
+    <cellStyle name="40% — акцент6 11" xfId="244" xr:uid="{5CE5CA43-6ADE-4C8B-AF7C-1E7E31367238}"/>
     <cellStyle name="40% — акцент6 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="40% — акцент6 3" xfId="84" xr:uid="{49B63F1C-8F8D-4C9B-831B-A726E643122C}"/>
     <cellStyle name="40% — акцент6 4" xfId="104" xr:uid="{A9DA34D4-6697-43DB-AFC3-9273029E21D7}"/>
@@ -2008,6 +2048,7 @@
     <cellStyle name="40% — акцент6 9" xfId="204" xr:uid="{B078E379-DE87-48CA-9EF4-9613C545A149}"/>
     <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% — акцент1 10" xfId="210" xr:uid="{C0AF7142-BD42-4AB9-96D4-E8B83E4276AD}"/>
+    <cellStyle name="60% — акцент1 11" xfId="230" xr:uid="{12AD4645-4DB8-4303-BD50-1755476E1081}"/>
     <cellStyle name="60% — акцент1 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="60% — акцент1 3" xfId="70" xr:uid="{8040EC93-2180-4AEF-9403-7A840AEBDDDB}"/>
     <cellStyle name="60% — акцент1 4" xfId="90" xr:uid="{976953D2-0BD3-4071-B682-D381E842DB96}"/>
@@ -2018,6 +2059,7 @@
     <cellStyle name="60% — акцент1 9" xfId="190" xr:uid="{C72DE664-5E2F-405F-96D0-609F699724CC}"/>
     <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% — акцент2 10" xfId="213" xr:uid="{8279DE43-21C2-49FD-BDA8-20110E9EEABB}"/>
+    <cellStyle name="60% — акцент2 11" xfId="233" xr:uid="{3DC16D65-6714-471B-B05A-3A301283071E}"/>
     <cellStyle name="60% — акцент2 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="60% — акцент2 3" xfId="73" xr:uid="{6241CEF9-175E-4980-973E-6D24003ACCC4}"/>
     <cellStyle name="60% — акцент2 4" xfId="93" xr:uid="{9DF5F7EC-ACDA-4B05-BC7B-0EBB9D3AD064}"/>
@@ -2028,6 +2070,7 @@
     <cellStyle name="60% — акцент2 9" xfId="193" xr:uid="{8874FF38-3DA3-43C9-914B-09CC298F4A55}"/>
     <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% — акцент3 10" xfId="216" xr:uid="{C2197ECF-31D5-4E04-8F13-89BAA1B6942D}"/>
+    <cellStyle name="60% — акцент3 11" xfId="236" xr:uid="{11AA60C3-55A3-48D8-A11E-FCE44CB561B2}"/>
     <cellStyle name="60% — акцент3 2" xfId="56" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="60% — акцент3 3" xfId="76" xr:uid="{8DC5A82C-DDAE-45AF-B4C3-D26501EDB9E5}"/>
     <cellStyle name="60% — акцент3 4" xfId="96" xr:uid="{5112010B-4DD0-46F5-846F-4B78B95EBAA0}"/>
@@ -2038,6 +2081,7 @@
     <cellStyle name="60% — акцент3 9" xfId="196" xr:uid="{15AF0685-E4CF-414E-AA1F-E609E7FFC3F1}"/>
     <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% — акцент4 10" xfId="219" xr:uid="{99DCAEDE-E318-4383-8809-CCDC8C3C73F6}"/>
+    <cellStyle name="60% — акцент4 11" xfId="239" xr:uid="{0311220A-E486-4E6E-B1DF-3E14E61E681F}"/>
     <cellStyle name="60% — акцент4 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
     <cellStyle name="60% — акцент4 3" xfId="79" xr:uid="{471B8360-8D0E-4186-8059-2FAD71E37544}"/>
     <cellStyle name="60% — акцент4 4" xfId="99" xr:uid="{B057BFF2-2E02-4EF7-82CD-57B047FA8040}"/>
@@ -2048,6 +2092,7 @@
     <cellStyle name="60% — акцент4 9" xfId="199" xr:uid="{3ED5FC9D-A4B4-4201-B339-79DE93BAED6A}"/>
     <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% — акцент5 10" xfId="222" xr:uid="{1A7B24CD-E0E9-4CAA-B075-A537A54A5EDE}"/>
+    <cellStyle name="60% — акцент5 11" xfId="242" xr:uid="{CBB086C0-58C8-4FA3-A735-80CEFF2082DA}"/>
     <cellStyle name="60% — акцент5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
     <cellStyle name="60% — акцент5 3" xfId="82" xr:uid="{E0A9EFA6-310E-4D93-BDC5-11C9D3EEA735}"/>
     <cellStyle name="60% — акцент5 4" xfId="102" xr:uid="{7FDCE02F-809A-4BCC-9C53-E08AAEC5C9BD}"/>
@@ -2058,6 +2103,7 @@
     <cellStyle name="60% — акцент5 9" xfId="202" xr:uid="{6144972F-DBEB-40C9-B196-63E9D4F72DAB}"/>
     <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% — акцент6 10" xfId="225" xr:uid="{13B87898-79D0-4439-A109-403EAF34E5D3}"/>
+    <cellStyle name="60% — акцент6 11" xfId="245" xr:uid="{CE13BA2C-5F19-4F62-9663-0FFDC754FEFC}"/>
     <cellStyle name="60% — акцент6 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="60% — акцент6 3" xfId="85" xr:uid="{5539DCAA-F95A-43B3-BF58-57421525D578}"/>
     <cellStyle name="60% — акцент6 4" xfId="105" xr:uid="{96982149-4368-42E1-B97F-FD939CE04A1F}"/>
@@ -2088,6 +2134,7 @@
     <cellStyle name="Обычный 10" xfId="166" xr:uid="{4D99C186-79FA-4E11-9B45-FCE36BB1968D}"/>
     <cellStyle name="Обычный 11" xfId="186" xr:uid="{0B7D584B-4485-4A30-8353-D616C1D3A325}"/>
     <cellStyle name="Обычный 12" xfId="206" xr:uid="{6AA5889B-C397-4C19-A50B-46468476814B}"/>
+    <cellStyle name="Обычный 13" xfId="226" xr:uid="{F6EAA270-3878-4479-9124-E7D63DE2CC61}"/>
     <cellStyle name="Обычный 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="Обычный 3" xfId="42" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
     <cellStyle name="Обычный 4" xfId="45" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
@@ -2100,6 +2147,7 @@
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание 10" xfId="187" xr:uid="{6A9A507E-BDF3-4655-AB68-D8920B382921}"/>
     <cellStyle name="Примечание 11" xfId="207" xr:uid="{2A18EC6F-15D0-4FE2-B342-B08CEEE578AD}"/>
+    <cellStyle name="Примечание 12" xfId="227" xr:uid="{C8E3D590-53D5-43BE-95F7-311D46365E3F}"/>
     <cellStyle name="Примечание 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
     <cellStyle name="Примечание 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
     <cellStyle name="Примечание 4" xfId="67" xr:uid="{623D923C-0617-4865-BAA8-9E5247ACA241}"/>
@@ -2114,27 +2162,6 @@
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2168,6 +2195,27 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2835,6 +2883,136 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I61:J71" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="1" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Сумма по полю Итого" fld="6" baseField="1" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="5">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="Сводная таблица2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -2914,156 +3092,26 @@
     <dataField name="Сумма по полю Итого" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="7">
+    <format dxfId="12">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
     <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="4">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="3">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="2">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="1">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="0">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I61:J71" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="1" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Сумма по полю Итого" fld="6" baseField="1" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="12">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="11">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="10">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="9">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="8">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="7">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -3344,7 +3392,7 @@
   <dimension ref="A1:X87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6340,13 +6388,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="78">
-        <v>31.687000000000001</v>
+        <v>32.417999999999999</v>
       </c>
       <c r="F2" s="78">
-        <v>6.4660000000000002</v>
+        <v>6.4930000000000003</v>
       </c>
       <c r="G2" s="78">
-        <v>31.414999999999999</v>
+        <v>31.456</v>
       </c>
       <c r="H2" s="78">
         <v>172</v>
@@ -6372,13 +6420,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="78">
-        <v>0.128</v>
+        <v>0.107</v>
       </c>
       <c r="F3" s="78">
-        <v>1.2999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G3" s="78">
-        <v>7.8E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H3" s="78">
         <v>95</v>
@@ -6404,13 +6452,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="78">
-        <v>0.114</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="F4" s="78">
-        <v>1.4999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G4" s="78">
-        <v>8.5999999999999993E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="H4" s="78">
         <v>94</v>
@@ -6436,13 +6484,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="78">
-        <v>0.73299999999999998</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="F5" s="78">
-        <v>4.8000000000000001E-2</v>
+        <v>0.189</v>
       </c>
       <c r="G5" s="78">
-        <v>0.72</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="H5" s="78">
         <v>24</v>
@@ -6468,13 +6516,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="78">
-        <v>0.84299999999999997</v>
+        <v>1.417</v>
       </c>
       <c r="F6" s="78">
-        <v>0.06</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="G6" s="78">
-        <v>0.75900000000000001</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="H6" s="78">
         <v>96</v>
@@ -6500,13 +6548,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="78">
-        <v>0.16300000000000001</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="F7" s="78">
-        <v>1.6E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G7" s="78">
-        <v>0.14399999999999999</v>
+        <v>0.154</v>
       </c>
       <c r="H7" s="78">
         <v>141</v>
@@ -6532,13 +6580,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="78">
-        <v>0.16800000000000001</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="F8" s="78">
-        <v>1.7999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G8" s="78">
-        <v>0.128</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="H8" s="78">
         <v>112</v>
@@ -6564,13 +6612,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="78">
-        <v>0.215</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="F9" s="78">
-        <v>2.1000000000000001E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="G9" s="78">
-        <v>0.15</v>
+        <v>0.153</v>
       </c>
       <c r="H9" s="78">
         <v>173</v>
@@ -6596,13 +6644,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="78">
-        <v>0.15</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="F10" s="78">
-        <v>1.7000000000000001E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G10" s="78">
-        <v>0.109</v>
+        <v>0.106</v>
       </c>
       <c r="H10" s="78">
         <v>60</v>
@@ -6628,10 +6676,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="78">
-        <v>8.5999999999999993E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="F11" s="78">
-        <v>0.01</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="G11" s="78">
         <v>7.6999999999999999E-2</v>
@@ -6660,13 +6708,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="78">
-        <v>0.183</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="F12" s="78">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="G12" s="78">
-        <v>0.155</v>
+        <v>0.153</v>
       </c>
       <c r="H12" s="78">
         <v>108</v>
@@ -6692,13 +6740,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="78">
-        <v>0.19</v>
+        <v>0.217</v>
       </c>
       <c r="F13" s="78">
-        <v>1.7999999999999999E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="G13" s="78">
-        <v>0.13</v>
+        <v>0.159</v>
       </c>
       <c r="H13" s="78">
         <v>32</v>
@@ -6724,13 +6772,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="78">
-        <v>0.14699999999999999</v>
+        <v>0.158</v>
       </c>
       <c r="F14" s="78">
-        <v>1.6E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G14" s="78">
-        <v>0.14099999999999999</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="H14" s="78">
         <v>32</v>
@@ -6756,13 +6804,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="78">
-        <v>10.407</v>
+        <v>10.448</v>
       </c>
       <c r="F15" s="78">
-        <v>4.1000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="G15" s="78">
-        <v>10.375</v>
+        <v>10.428000000000001</v>
       </c>
       <c r="H15" s="78">
         <v>10</v>
@@ -6788,13 +6836,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="78">
-        <v>25.728000000000002</v>
+        <v>25.908999999999999</v>
       </c>
       <c r="F16" s="78">
-        <v>4.2999999999999997E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="G16" s="78">
-        <v>25.702000000000002</v>
+        <v>25.78</v>
       </c>
       <c r="H16" s="78">
         <v>34</v>
@@ -6820,13 +6868,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="78">
-        <v>31.687000000000001</v>
+        <v>32.417000000000002</v>
       </c>
       <c r="F17" s="78">
-        <v>0.08</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="G17" s="78">
-        <v>31.471</v>
+        <v>31.555</v>
       </c>
       <c r="H17" s="78">
         <v>60</v>
@@ -6852,13 +6900,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="78">
-        <v>21.361000000000001</v>
+        <v>21.376999999999999</v>
       </c>
       <c r="F18" s="78">
-        <v>9.0999999999999998E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="G18" s="78">
-        <v>21.324999999999999</v>
+        <v>21.366</v>
       </c>
       <c r="H18" s="78">
         <v>13</v>
@@ -6884,13 +6932,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="78">
-        <v>21.867999999999999</v>
+        <v>22.47</v>
       </c>
       <c r="F19" s="78">
-        <v>8.2000000000000003E-2</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="G19" s="78">
-        <v>21.815000000000001</v>
+        <v>21.87</v>
       </c>
       <c r="H19" s="78">
         <v>23</v>
@@ -6916,13 +6964,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="78">
-        <v>16.672999999999998</v>
+        <v>16.777000000000001</v>
       </c>
       <c r="F20" s="78">
-        <v>1.9E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="G20" s="78">
-        <v>16.626999999999999</v>
+        <v>16.663</v>
       </c>
       <c r="H20" s="78">
         <v>32</v>
